--- a/Planning/Specials Layout.xlsx
+++ b/Planning/Specials Layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jg\Specials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jg\Specials\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Time" sheetId="2" r:id="rId2"/>
-    <sheet name="Food or Drink" sheetId="3" r:id="rId3"/>
+    <sheet name="Symbols" sheetId="5" r:id="rId2"/>
+    <sheet name="Examples" sheetId="4" r:id="rId3"/>
+    <sheet name="Time" sheetId="2" r:id="rId4"/>
+    <sheet name="Food or Drink" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,12 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Home Screen</t>
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>Standard Layout</t>
   </si>
 </sst>
 </file>
@@ -95,6 +103,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8A3B1F"/>
+      <color rgb="FF93451F"/>
+      <color rgb="FF8A281F"/>
+      <color rgb="FF7B281F"/>
+      <color rgb="FFC44032"/>
+      <color rgb="FFD35D51"/>
+      <color rgb="FFBF8073"/>
+      <color rgb="FFDCCE55"/>
+      <color rgb="FFDBDB55"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -110,13 +131,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>295070</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190465</xdr:rowOff>
@@ -148,14 +169,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>276112</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>276113</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66644</xdr:rowOff>
     </xdr:to>
@@ -186,14 +207,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>304665</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>304666</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152364</xdr:rowOff>
     </xdr:to>
@@ -224,20 +245,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>439511</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>275617</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152355</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>498766</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>69675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -250,8 +271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="361950"/>
-          <a:ext cx="4866667" cy="361905"/>
+          <a:off x="20033797" y="1499508"/>
+          <a:ext cx="4957826" cy="8666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,20 +283,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>98312</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>447058</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>141792</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>174638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>65805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -288,8 +309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="619125"/>
-          <a:ext cx="4933333" cy="8666667"/>
+          <a:off x="14671562" y="251733"/>
+          <a:ext cx="4934076" cy="8577072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,20 +321,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>213024</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>185369</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>256558</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>87369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -326,8 +347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14328321" y="1129393"/>
-          <a:ext cx="4866667" cy="8390476"/>
+          <a:off x="25336500" y="1374321"/>
+          <a:ext cx="4923809" cy="8619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -336,22 +357,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>25238</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>46548</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>316453</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -364,8 +385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19594286" y="1143000"/>
-          <a:ext cx="4923809" cy="8619048"/>
+          <a:off x="9434852" y="2090057"/>
+          <a:ext cx="4847632" cy="361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,16 +397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277467</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139481</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318288</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153088</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -396,8 +417,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724149" y="721179"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972008" y="2449286"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -536,16 +557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>74129</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63931</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77538</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -554,8 +575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="3503129"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="5231236"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -694,16 +715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>65847</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>79454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55649</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69256</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -712,8 +733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="4066347"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="5794454"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -852,16 +873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277467</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114041</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318288</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127648</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -870,8 +891,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724149" y="1838739"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972008" y="3566846"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1010,16 +1031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96907</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86709</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100316</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1028,8 +1049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="2382907"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="4111014"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1168,16 +1189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88624</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78426</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92033</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1186,8 +1207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="2946124"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="4674231"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1326,16 +1347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61291</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>51093</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1344,8 +1365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="4633291"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="6361398"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1484,16 +1505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123152</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136759</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1502,8 +1523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="1276350"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="3004457"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1642,16 +1663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277468</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>37427</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>318289</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>51034</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1660,8 +1681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2724150" y="5191125"/>
-          <a:ext cx="4868518" cy="561302"/>
+          <a:off x="20972009" y="6919232"/>
+          <a:ext cx="4849468" cy="561302"/>
           <a:chOff x="2720836" y="721179"/>
           <a:chExt cx="4861892" cy="561302"/>
         </a:xfrm>
@@ -1798,10 +1819,8522 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23744464" y="340177"/>
+          <a:ext cx="4912178" cy="993321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCCE55"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>328679</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15008679" y="1469572"/>
+          <a:ext cx="4914286" cy="8580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588309</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542597</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="588309" y="408214"/>
+          <a:ext cx="4852859" cy="8558784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8A3B1F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539395</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585107" y="760640"/>
+          <a:ext cx="4812038" cy="644270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8A3B1F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588309</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542597</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="112" name="Group 111"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="588309" y="408214"/>
+          <a:ext cx="4812038" cy="352425"/>
+          <a:chOff x="7324725" y="123825"/>
+          <a:chExt cx="4813808" cy="352425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="Rectangle 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7324725" y="123825"/>
+            <a:ext cx="4813808" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="8A3B1F"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="Rectangle 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9258299" y="133350"/>
+            <a:ext cx="955675" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0">
+                <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>12:47</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> PM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="115" name="Group 114"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7429500" y="209550"/>
+            <a:ext cx="524002" cy="73152"/>
+            <a:chOff x="7543800" y="209550"/>
+            <a:chExt cx="530352" cy="73152"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="Oval 126"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7543800" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128" name="Oval 127"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="129" name="Oval 128"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="130" name="Oval 129"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7886700" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="131" name="Oval 130"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8001000" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="Rectangle 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7839075" y="123825"/>
+            <a:ext cx="949325" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Verizon</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="117" name="Group 116"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8680450" y="174626"/>
+            <a:ext cx="177800" cy="135887"/>
+            <a:chOff x="8820150" y="698501"/>
+            <a:chExt cx="177800" cy="135887"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="124" name="Block Arc 123"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8820150" y="698501"/>
+              <a:ext cx="177800" cy="82549"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="Block Arc 124"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8842375" y="739774"/>
+              <a:ext cx="128016" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="126" name="Isosceles Triangle 125"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="8877300" y="788669"/>
+              <a:ext cx="66675" cy="45719"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="Lightning Bolt 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="15162853">
+            <a:off x="11952787" y="206086"/>
+            <a:ext cx="126138" cy="108937"/>
+          </a:xfrm>
+          <a:prstGeom prst="lightningBolt">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Chevron 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="18997494">
+            <a:off x="11134642" y="202255"/>
+            <a:ext cx="164292" cy="82844"/>
+          </a:xfrm>
+          <a:prstGeom prst="chevron">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="Freeform 119"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11337925" y="173667"/>
+            <a:ext cx="120650" cy="164204"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 120650"/>
+              <a:gd name="connsiteY0" fmla="*/ 20008 h 164204"/>
+              <a:gd name="connsiteX1" fmla="*/ 15875 w 120650"/>
+              <a:gd name="connsiteY1" fmla="*/ 23183 h 164204"/>
+              <a:gd name="connsiteX2" fmla="*/ 25400 w 120650"/>
+              <a:gd name="connsiteY2" fmla="*/ 29533 h 164204"/>
+              <a:gd name="connsiteX3" fmla="*/ 34925 w 120650"/>
+              <a:gd name="connsiteY3" fmla="*/ 32708 h 164204"/>
+              <a:gd name="connsiteX4" fmla="*/ 44450 w 120650"/>
+              <a:gd name="connsiteY4" fmla="*/ 42233 h 164204"/>
+              <a:gd name="connsiteX5" fmla="*/ 63500 w 120650"/>
+              <a:gd name="connsiteY5" fmla="*/ 54933 h 164204"/>
+              <a:gd name="connsiteX6" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY6" fmla="*/ 67633 h 164204"/>
+              <a:gd name="connsiteX7" fmla="*/ 95250 w 120650"/>
+              <a:gd name="connsiteY7" fmla="*/ 80333 h 164204"/>
+              <a:gd name="connsiteX8" fmla="*/ 101600 w 120650"/>
+              <a:gd name="connsiteY8" fmla="*/ 89858 h 164204"/>
+              <a:gd name="connsiteX9" fmla="*/ 111125 w 120650"/>
+              <a:gd name="connsiteY9" fmla="*/ 96208 h 164204"/>
+              <a:gd name="connsiteX10" fmla="*/ 114300 w 120650"/>
+              <a:gd name="connsiteY10" fmla="*/ 108908 h 164204"/>
+              <a:gd name="connsiteX11" fmla="*/ 120650 w 120650"/>
+              <a:gd name="connsiteY11" fmla="*/ 118433 h 164204"/>
+              <a:gd name="connsiteX12" fmla="*/ 107950 w 120650"/>
+              <a:gd name="connsiteY12" fmla="*/ 131133 h 164204"/>
+              <a:gd name="connsiteX13" fmla="*/ 88900 w 120650"/>
+              <a:gd name="connsiteY13" fmla="*/ 143833 h 164204"/>
+              <a:gd name="connsiteX14" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY14" fmla="*/ 150183 h 164204"/>
+              <a:gd name="connsiteX15" fmla="*/ 69850 w 120650"/>
+              <a:gd name="connsiteY15" fmla="*/ 153358 h 164204"/>
+              <a:gd name="connsiteX16" fmla="*/ 57150 w 120650"/>
+              <a:gd name="connsiteY16" fmla="*/ 153358 h 164204"/>
+              <a:gd name="connsiteX17" fmla="*/ 63500 w 120650"/>
+              <a:gd name="connsiteY17" fmla="*/ 96208 h 164204"/>
+              <a:gd name="connsiteX18" fmla="*/ 66675 w 120650"/>
+              <a:gd name="connsiteY18" fmla="*/ 51758 h 164204"/>
+              <a:gd name="connsiteX19" fmla="*/ 69850 w 120650"/>
+              <a:gd name="connsiteY19" fmla="*/ 958 h 164204"/>
+              <a:gd name="connsiteX20" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY20" fmla="*/ 7308 h 164204"/>
+              <a:gd name="connsiteX21" fmla="*/ 85725 w 120650"/>
+              <a:gd name="connsiteY21" fmla="*/ 16833 h 164204"/>
+              <a:gd name="connsiteX22" fmla="*/ 95250 w 120650"/>
+              <a:gd name="connsiteY22" fmla="*/ 26358 h 164204"/>
+              <a:gd name="connsiteX23" fmla="*/ 101600 w 120650"/>
+              <a:gd name="connsiteY23" fmla="*/ 45408 h 164204"/>
+              <a:gd name="connsiteX24" fmla="*/ 107950 w 120650"/>
+              <a:gd name="connsiteY24" fmla="*/ 54933 h 164204"/>
+              <a:gd name="connsiteX25" fmla="*/ 98425 w 120650"/>
+              <a:gd name="connsiteY25" fmla="*/ 58108 h 164204"/>
+              <a:gd name="connsiteX26" fmla="*/ 82550 w 120650"/>
+              <a:gd name="connsiteY26" fmla="*/ 61283 h 164204"/>
+              <a:gd name="connsiteX27" fmla="*/ 66675 w 120650"/>
+              <a:gd name="connsiteY27" fmla="*/ 80333 h 164204"/>
+              <a:gd name="connsiteX28" fmla="*/ 57150 w 120650"/>
+              <a:gd name="connsiteY28" fmla="*/ 83508 h 164204"/>
+              <a:gd name="connsiteX29" fmla="*/ 28575 w 120650"/>
+              <a:gd name="connsiteY29" fmla="*/ 108908 h 164204"/>
+              <a:gd name="connsiteX30" fmla="*/ 22225 w 120650"/>
+              <a:gd name="connsiteY30" fmla="*/ 118433 h 164204"/>
+              <a:gd name="connsiteX31" fmla="*/ 12700 w 120650"/>
+              <a:gd name="connsiteY31" fmla="*/ 124783 h 164204"/>
+              <a:gd name="connsiteX32" fmla="*/ 9525 w 120650"/>
+              <a:gd name="connsiteY32" fmla="*/ 127958 h 164204"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX9" y="connsiteY9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX10" y="connsiteY10"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX11" y="connsiteY11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX12" y="connsiteY12"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX13" y="connsiteY13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX14" y="connsiteY14"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX15" y="connsiteY15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX16" y="connsiteY16"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX17" y="connsiteY17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX18" y="connsiteY18"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX19" y="connsiteY19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX20" y="connsiteY20"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX21" y="connsiteY21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX22" y="connsiteY22"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX23" y="connsiteY23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX24" y="connsiteY24"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX25" y="connsiteY25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX26" y="connsiteY26"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX27" y="connsiteY27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX28" y="connsiteY28"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX29" y="connsiteY29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX30" y="connsiteY30"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX31" y="connsiteY31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX32" y="connsiteY32"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="120650" h="164204">
+                <a:moveTo>
+                  <a:pt x="0" y="20008"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="5292" y="21066"/>
+                  <a:pt x="10822" y="21288"/>
+                  <a:pt x="15875" y="23183"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19448" y="24523"/>
+                  <a:pt x="21987" y="27826"/>
+                  <a:pt x="25400" y="29533"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28393" y="31030"/>
+                  <a:pt x="31750" y="31650"/>
+                  <a:pt x="34925" y="32708"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38100" y="35883"/>
+                  <a:pt x="40906" y="39476"/>
+                  <a:pt x="44450" y="42233"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50474" y="46918"/>
+                  <a:pt x="63500" y="54933"/>
+                  <a:pt x="63500" y="54933"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="81698" y="82230"/>
+                  <a:pt x="57467" y="50106"/>
+                  <a:pt x="79375" y="67633"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="99891" y="84046"/>
+                  <a:pt x="71309" y="72353"/>
+                  <a:pt x="95250" y="80333"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="97367" y="83508"/>
+                  <a:pt x="98902" y="87160"/>
+                  <a:pt x="101600" y="89858"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="104298" y="92556"/>
+                  <a:pt x="109008" y="93033"/>
+                  <a:pt x="111125" y="96208"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="113546" y="99839"/>
+                  <a:pt x="112581" y="104897"/>
+                  <a:pt x="114300" y="108908"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="115803" y="112415"/>
+                  <a:pt x="118533" y="115258"/>
+                  <a:pt x="120650" y="118433"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="115262" y="134597"/>
+                  <a:pt x="121805" y="123436"/>
+                  <a:pt x="107950" y="131133"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="101279" y="134839"/>
+                  <a:pt x="95250" y="139600"/>
+                  <a:pt x="88900" y="143833"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="85725" y="145950"/>
+                  <a:pt x="82995" y="148976"/>
+                  <a:pt x="79375" y="150183"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="69850" y="153358"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="68477" y="155417"/>
+                  <a:pt x="58523" y="176699"/>
+                  <a:pt x="57150" y="153358"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="55490" y="125139"/>
+                  <a:pt x="58234" y="117272"/>
+                  <a:pt x="63500" y="96208"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64558" y="81391"/>
+                  <a:pt x="65687" y="66580"/>
+                  <a:pt x="66675" y="51758"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="67804" y="34829"/>
+                  <a:pt x="65189" y="17272"/>
+                  <a:pt x="69850" y="958"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="70898" y="-2711"/>
+                  <a:pt x="76200" y="5191"/>
+                  <a:pt x="79375" y="7308"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="81492" y="10483"/>
+                  <a:pt x="83282" y="13902"/>
+                  <a:pt x="85725" y="16833"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="88600" y="20282"/>
+                  <a:pt x="93069" y="22433"/>
+                  <a:pt x="95250" y="26358"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="98501" y="32209"/>
+                  <a:pt x="99483" y="39058"/>
+                  <a:pt x="101600" y="45408"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="102807" y="49028"/>
+                  <a:pt x="105833" y="51758"/>
+                  <a:pt x="107950" y="54933"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="104775" y="55991"/>
+                  <a:pt x="101672" y="57296"/>
+                  <a:pt x="98425" y="58108"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="93190" y="59417"/>
+                  <a:pt x="87377" y="58870"/>
+                  <a:pt x="82550" y="61283"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="66426" y="69345"/>
+                  <a:pt x="78831" y="70608"/>
+                  <a:pt x="66675" y="80333"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64062" y="82424"/>
+                  <a:pt x="60325" y="82450"/>
+                  <a:pt x="57150" y="83508"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35402" y="105256"/>
+                  <a:pt x="45572" y="97577"/>
+                  <a:pt x="28575" y="108908"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="26458" y="112083"/>
+                  <a:pt x="24923" y="115735"/>
+                  <a:pt x="22225" y="118433"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19527" y="121131"/>
+                  <a:pt x="15753" y="122493"/>
+                  <a:pt x="12700" y="124783"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11503" y="125681"/>
+                  <a:pt x="10583" y="126900"/>
+                  <a:pt x="9525" y="127958"/>
+                </a:cubicBezTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="Rounded Rectangle 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11566526" y="177799"/>
+            <a:ext cx="333374" cy="142875"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="Rectangle 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11903075" y="228600"/>
+            <a:ext cx="18288" cy="45719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="Rounded Rectangle 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11594311" y="206609"/>
+            <a:ext cx="233715" cy="109066"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>285053</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10736792" y="754063"/>
+          <a:ext cx="1211094" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Family</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>289721</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>273147</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11952554" y="754063"/>
+          <a:ext cx="1211093" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Full Bar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>277815</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>261241</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13168315" y="754063"/>
+          <a:ext cx="1211093" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fine Dining</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>566833</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="583407" y="1416843"/>
+          <a:ext cx="1197864" cy="678656"/>
+          <a:chOff x="583407" y="1416843"/>
+          <a:chExt cx="1197864" cy="678656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="583407" y="1416843"/>
+            <a:ext cx="1197864" cy="678656"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Fast Food</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Oval 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1008603" y="1702594"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Oval 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1068039" y="1762030"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554927</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1785938" y="1416843"/>
+          <a:ext cx="1197864" cy="678656"/>
+          <a:chOff x="6072188" y="3048000"/>
+          <a:chExt cx="1197864" cy="678656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Rectangle 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6072188" y="3048000"/>
+            <a:ext cx="1197864" cy="678656"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Family</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Oval 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6497384" y="3333751"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Oval 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6556820" y="3393187"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="Group 87"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2988469" y="1416843"/>
+          <a:ext cx="1197864" cy="678656"/>
+          <a:chOff x="6072188" y="3048000"/>
+          <a:chExt cx="1197864" cy="678656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="Rectangle 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6072188" y="3048000"/>
+            <a:ext cx="1197864" cy="678656"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Full Bar</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Oval 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6497384" y="3333751"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Oval 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6556820" y="3393187"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>531115</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="Group 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4191001" y="1416843"/>
+          <a:ext cx="1197864" cy="678656"/>
+          <a:chOff x="6072188" y="3048000"/>
+          <a:chExt cx="1197864" cy="678656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6072188" y="3048000"/>
+            <a:ext cx="1197864" cy="678656"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Fine Dining</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Oval 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6497384" y="3333751"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="Oval 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6556820" y="3393187"/>
+            <a:ext cx="228600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>461698</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>311622</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896865" y="8172980"/>
+          <a:ext cx="463757" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457017</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>140100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="654844" y="8441504"/>
+          <a:ext cx="4659923" cy="461596"/>
+          <a:chOff x="659946" y="8441504"/>
+          <a:chExt cx="4695642" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Rounded Rectangle 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="659946" y="8441504"/>
+            <a:ext cx="4695642" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Rectangle 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="989351" y="8489128"/>
+            <a:ext cx="4312898" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Specific restaurant or keyword</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="Group 31"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="777877" y="8581009"/>
+            <a:ext cx="201838" cy="209210"/>
+            <a:chOff x="750662" y="8512969"/>
+            <a:chExt cx="201838" cy="209210"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="Oval 96"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="750662" y="8512969"/>
+              <a:ext cx="164592" cy="164592"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="Straight Connector 29"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="97" idx="5"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="891150" y="8653457"/>
+              <a:ext cx="61350" cy="68722"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>187854</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>179572</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167073</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="Group 95"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21440510" y="3415771"/>
+          <a:ext cx="4849468" cy="561302"/>
+          <a:chOff x="2720836" y="721179"/>
+          <a:chExt cx="4861892" cy="561302"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="98" name="Picture 97"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2720836" y="721179"/>
+            <a:ext cx="4861892" cy="561302"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2849217" y="828261"/>
+            <a:ext cx="1851163" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Food or Drink</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="Rounded Rectangle 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4700380" y="799864"/>
+            <a:ext cx="2840933" cy="422413"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Both</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187752</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="642939" y="2202656"/>
+          <a:ext cx="2309812" cy="461596"/>
+          <a:chOff x="642939" y="2202656"/>
+          <a:chExt cx="2309812" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Rounded Rectangle 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="Rectangle 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672211" y="2226469"/>
+            <a:ext cx="785813" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1678782" y="2202657"/>
+            <a:ext cx="1226344" cy="422413"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Now</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187752</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="Group 107"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3024188" y="2202656"/>
+          <a:ext cx="2309812" cy="461596"/>
+          <a:chOff x="642939" y="2202656"/>
+          <a:chExt cx="2309812" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="Rounded Rectangle 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="Rectangle 131"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726281" y="2226469"/>
+            <a:ext cx="916782" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cuisine:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="Rounded Rectangle 132"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1678782" y="2202657"/>
+            <a:ext cx="1226344" cy="422413"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>All</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flowchart: Alternate Process 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11805708" y="8175625"/>
+          <a:ext cx="1239573" cy="511969"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>107344</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>352166</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>89452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11770177" y="8814404"/>
+          <a:ext cx="858655" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26167</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="642939" y="3374571"/>
+          <a:ext cx="2309812" cy="461596"/>
+          <a:chOff x="648041" y="2786062"/>
+          <a:chExt cx="2325121" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="142" name="Group 141"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="648041" y="2786062"/>
+            <a:ext cx="2325121" cy="461596"/>
+            <a:chOff x="642939" y="2202656"/>
+            <a:chExt cx="2309812" cy="461596"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="143" name="Rounded Rectangle 142"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="642939" y="2202656"/>
+              <a:ext cx="2309812" cy="461596"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="144" name="Rectangle 143"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="658694" y="2226469"/>
+              <a:ext cx="1023938" cy="376859"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Alcohol:</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="Group 36"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1927112" y="2833980"/>
+            <a:ext cx="914400" cy="365760"/>
+            <a:chOff x="1918948" y="2823482"/>
+            <a:chExt cx="911678" cy="365760"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="36" name="Group 35"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1918948" y="2823482"/>
+              <a:ext cx="911678" cy="365760"/>
+              <a:chOff x="6022861" y="6619875"/>
+              <a:chExt cx="1444058" cy="559594"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="31" name="Flowchart: Terminator 30"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6022861" y="6619875"/>
+                <a:ext cx="1444058" cy="559594"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartTerminator">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>n/a</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="33" name="Oval 32"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6022861" y="6619875"/>
+                <a:ext cx="562886" cy="559594"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="34" name="Isosceles Triangle 33"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18463297" flipV="1">
+                <a:off x="6173261" y="6814414"/>
+                <a:ext cx="87313" cy="122119"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="146" name="Isosceles Triangle 145"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="555511" flipV="1">
+              <a:off x="2064709" y="2941376"/>
+              <a:ext cx="47620" cy="61070"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="147" name="Isosceles Triangle 146"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="4752432" flipV="1">
+              <a:off x="2096522" y="2984892"/>
+              <a:ext cx="51301" cy="52272"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="Isosceles Triangle 148"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13363560" flipV="1">
+              <a:off x="2030719" y="3019288"/>
+              <a:ext cx="51883" cy="53996"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="152" name="Isosceles Triangle 151"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="9191531" flipV="1">
+              <a:off x="2079235" y="3023972"/>
+              <a:ext cx="47615" cy="51837"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9158</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="200" name="Group 199"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3024188" y="2786062"/>
+          <a:ext cx="2304711" cy="461596"/>
+          <a:chOff x="642939" y="2202656"/>
+          <a:chExt cx="2309812" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="Rounded Rectangle 209"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="Rectangle 210"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726281" y="2226469"/>
+            <a:ext cx="1023938" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Wifi:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26167</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="225" name="Group 224"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3024188" y="3374571"/>
+          <a:ext cx="2304711" cy="461596"/>
+          <a:chOff x="648041" y="2786062"/>
+          <a:chExt cx="2325121" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="226" name="Group 225"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="648041" y="2786062"/>
+            <a:ext cx="2325121" cy="461596"/>
+            <a:chOff x="642939" y="2202656"/>
+            <a:chExt cx="2309812" cy="461596"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="236" name="Rounded Rectangle 235"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="642939" y="2202656"/>
+              <a:ext cx="2309812" cy="461596"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="237" name="Rectangle 236"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="726281" y="2226469"/>
+              <a:ext cx="1178859" cy="376859"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Outdoors:</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="227" name="Group 226"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1927112" y="2833980"/>
+            <a:ext cx="914400" cy="365760"/>
+            <a:chOff x="1918948" y="2823482"/>
+            <a:chExt cx="911678" cy="365760"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="228" name="Group 227"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1918948" y="2823482"/>
+              <a:ext cx="911678" cy="365760"/>
+              <a:chOff x="6022861" y="6619875"/>
+              <a:chExt cx="1444058" cy="559594"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="233" name="Flowchart: Terminator 232"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6022861" y="6619875"/>
+                <a:ext cx="1444058" cy="559594"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartTerminator">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>n/a</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="234" name="Oval 233"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6022861" y="6619875"/>
+                <a:ext cx="562886" cy="559594"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="235" name="Isosceles Triangle 234"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18463297" flipV="1">
+                <a:off x="6173261" y="6814414"/>
+                <a:ext cx="87313" cy="122119"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="229" name="Isosceles Triangle 228"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="555511" flipV="1">
+              <a:off x="2064709" y="2941376"/>
+              <a:ext cx="47620" cy="61070"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="230" name="Isosceles Triangle 229"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="4752432" flipV="1">
+              <a:off x="2096522" y="2984892"/>
+              <a:ext cx="51301" cy="52272"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="231" name="Isosceles Triangle 230"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13363560" flipV="1">
+              <a:off x="2030719" y="3019288"/>
+              <a:ext cx="51883" cy="53996"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="232" name="Isosceles Triangle 231"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="9191531" flipV="1">
+              <a:off x="2079235" y="3023972"/>
+              <a:ext cx="47615" cy="51837"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24365</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9158</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="252" name="Group 251"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="631584" y="2786062"/>
+          <a:ext cx="2321167" cy="461596"/>
+          <a:chOff x="631659" y="2202656"/>
+          <a:chExt cx="2321092" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="Rounded Rectangle 261"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="263" name="Rectangle 262"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="631659" y="2253683"/>
+            <a:ext cx="962577" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sort by:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450214</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="266" name="Group 265"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="648041" y="3959679"/>
+          <a:ext cx="4659923" cy="461596"/>
+          <a:chOff x="659946" y="8441504"/>
+          <a:chExt cx="4695642" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="267" name="Rounded Rectangle 266"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="659946" y="8441504"/>
+            <a:ext cx="4695642" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="Rectangle 267"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3136445" y="8489128"/>
+            <a:ext cx="2165803" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Map</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>186359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="Rectangle 271"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="4000500"/>
+          <a:ext cx="2354036" cy="376859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search Area:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="4503964"/>
+          <a:ext cx="4694464" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>486079</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="Rounded Rectangle 272"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1700893" y="2816679"/>
+          <a:ext cx="1234472" cy="422413"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Distance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>467761</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122930</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="274" name="Group 273"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23049177" y="7662334"/>
+          <a:ext cx="2314553" cy="461596"/>
+          <a:chOff x="631659" y="2202656"/>
+          <a:chExt cx="2321092" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="275" name="Rounded Rectangle 274"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="276" name="Rectangle 275"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="631659" y="2253683"/>
+            <a:ext cx="962577" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sort by:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162239</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="277" name="Group 276"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="634435" y="843643"/>
+          <a:ext cx="3226592" cy="461596"/>
+          <a:chOff x="642939" y="2202656"/>
+          <a:chExt cx="2309812" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="278" name="Rounded Rectangle 277"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="279" name="Rectangle 278"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672210" y="2226469"/>
+            <a:ext cx="1475606" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Food</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> or Drink</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="280" name="Rounded Rectangle 279"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2182812" y="2202657"/>
+            <a:ext cx="722313" cy="422413"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Both</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="Rounded Rectangle 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4109357" y="857250"/>
+          <a:ext cx="1234472" cy="422413"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="Rounded Rectangle 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6123214" y="8572500"/>
+          <a:ext cx="2325121" cy="461596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43845</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345922</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149095</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4294376" y="2831335"/>
+          <a:ext cx="909296" cy="365760"/>
+          <a:chOff x="7420428" y="8620418"/>
+          <a:chExt cx="915911" cy="365760"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="290" name="Flowchart: Terminator 289"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7420428" y="8620418"/>
+            <a:ext cx="915911" cy="365760"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Yes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="291" name="Oval 290"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7966290" y="8620418"/>
+            <a:ext cx="362126" cy="365760"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="42" name="Group 41"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8056204" y="8738312"/>
+            <a:ext cx="145830" cy="134433"/>
+            <a:chOff x="7436259" y="8738312"/>
+            <a:chExt cx="145830" cy="134433"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="292" name="Isosceles Triangle 291"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18463297" flipV="1">
+              <a:off x="7446388" y="8748818"/>
+              <a:ext cx="57069" cy="77328"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="286" name="Isosceles Triangle 285"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="555511" flipV="1">
+              <a:off x="7498239" y="8738312"/>
+              <a:ext cx="47762" cy="61070"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="287" name="Isosceles Triangle 286"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="4752432" flipV="1">
+              <a:off x="7530224" y="8781750"/>
+              <a:ext cx="51301" cy="52428"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="288" name="Isosceles Triangle 287"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13363560" flipV="1">
+              <a:off x="7464148" y="8816224"/>
+              <a:ext cx="52038" cy="53996"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="289" name="Isosceles Triangle 288"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="9191531" flipV="1">
+              <a:off x="7512809" y="8820908"/>
+              <a:ext cx="47757" cy="51837"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>37895</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17716500" y="2047875"/>
+          <a:ext cx="1625395" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>18937</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18424525" y="1762125"/>
+          <a:ext cx="898412" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47490</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18288000" y="2381250"/>
+          <a:ext cx="1063490" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>536090</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19621500" y="1200150"/>
+          <a:ext cx="3838090" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>199586</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640550" y="3638550"/>
+          <a:ext cx="3482536" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18694400" y="2440842"/>
+          <a:ext cx="4987925" cy="456845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200533</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="820886" y="536575"/>
+          <a:ext cx="4852859" cy="8558784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8A3B1F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197331</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="817684" y="889001"/>
+          <a:ext cx="4852859" cy="644270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200533</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="Group 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="825072" y="536575"/>
+          <a:ext cx="4886354" cy="352425"/>
+          <a:chOff x="7324725" y="123825"/>
+          <a:chExt cx="4813808" cy="352425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7324725" y="123825"/>
+            <a:ext cx="4813808" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="8A3B1F"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9258299" y="133350"/>
+            <a:ext cx="955675" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0">
+                <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>12:47</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> PM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="Group 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7429500" y="209550"/>
+            <a:ext cx="524002" cy="73152"/>
+            <a:chOff x="7543800" y="209550"/>
+            <a:chExt cx="530352" cy="73152"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Oval 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7543800" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Oval 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Oval 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Oval 16"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7886700" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Oval 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8001000" y="209550"/>
+              <a:ext cx="73152" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7839075" y="123825"/>
+            <a:ext cx="949325" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Verizon</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="Group 29"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8680450" y="174626"/>
+            <a:ext cx="177800" cy="135887"/>
+            <a:chOff x="8820150" y="698501"/>
+            <a:chExt cx="177800" cy="135887"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Block Arc 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8820150" y="698501"/>
+              <a:ext cx="177800" cy="82549"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Block Arc 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8842375" y="739774"/>
+              <a:ext cx="128016" cy="73152"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Isosceles Triangle 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="8877300" y="788669"/>
+              <a:ext cx="66675" cy="45719"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Lightning Bolt 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="15162853">
+            <a:off x="11952787" y="206086"/>
+            <a:ext cx="126138" cy="108937"/>
+          </a:xfrm>
+          <a:prstGeom prst="lightningBolt">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Chevron 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="18997494">
+            <a:off x="11134642" y="202255"/>
+            <a:ext cx="164292" cy="82844"/>
+          </a:xfrm>
+          <a:prstGeom prst="chevron">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Freeform 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11337925" y="173667"/>
+            <a:ext cx="120650" cy="164204"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 120650"/>
+              <a:gd name="connsiteY0" fmla="*/ 20008 h 164204"/>
+              <a:gd name="connsiteX1" fmla="*/ 15875 w 120650"/>
+              <a:gd name="connsiteY1" fmla="*/ 23183 h 164204"/>
+              <a:gd name="connsiteX2" fmla="*/ 25400 w 120650"/>
+              <a:gd name="connsiteY2" fmla="*/ 29533 h 164204"/>
+              <a:gd name="connsiteX3" fmla="*/ 34925 w 120650"/>
+              <a:gd name="connsiteY3" fmla="*/ 32708 h 164204"/>
+              <a:gd name="connsiteX4" fmla="*/ 44450 w 120650"/>
+              <a:gd name="connsiteY4" fmla="*/ 42233 h 164204"/>
+              <a:gd name="connsiteX5" fmla="*/ 63500 w 120650"/>
+              <a:gd name="connsiteY5" fmla="*/ 54933 h 164204"/>
+              <a:gd name="connsiteX6" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY6" fmla="*/ 67633 h 164204"/>
+              <a:gd name="connsiteX7" fmla="*/ 95250 w 120650"/>
+              <a:gd name="connsiteY7" fmla="*/ 80333 h 164204"/>
+              <a:gd name="connsiteX8" fmla="*/ 101600 w 120650"/>
+              <a:gd name="connsiteY8" fmla="*/ 89858 h 164204"/>
+              <a:gd name="connsiteX9" fmla="*/ 111125 w 120650"/>
+              <a:gd name="connsiteY9" fmla="*/ 96208 h 164204"/>
+              <a:gd name="connsiteX10" fmla="*/ 114300 w 120650"/>
+              <a:gd name="connsiteY10" fmla="*/ 108908 h 164204"/>
+              <a:gd name="connsiteX11" fmla="*/ 120650 w 120650"/>
+              <a:gd name="connsiteY11" fmla="*/ 118433 h 164204"/>
+              <a:gd name="connsiteX12" fmla="*/ 107950 w 120650"/>
+              <a:gd name="connsiteY12" fmla="*/ 131133 h 164204"/>
+              <a:gd name="connsiteX13" fmla="*/ 88900 w 120650"/>
+              <a:gd name="connsiteY13" fmla="*/ 143833 h 164204"/>
+              <a:gd name="connsiteX14" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY14" fmla="*/ 150183 h 164204"/>
+              <a:gd name="connsiteX15" fmla="*/ 69850 w 120650"/>
+              <a:gd name="connsiteY15" fmla="*/ 153358 h 164204"/>
+              <a:gd name="connsiteX16" fmla="*/ 57150 w 120650"/>
+              <a:gd name="connsiteY16" fmla="*/ 153358 h 164204"/>
+              <a:gd name="connsiteX17" fmla="*/ 63500 w 120650"/>
+              <a:gd name="connsiteY17" fmla="*/ 96208 h 164204"/>
+              <a:gd name="connsiteX18" fmla="*/ 66675 w 120650"/>
+              <a:gd name="connsiteY18" fmla="*/ 51758 h 164204"/>
+              <a:gd name="connsiteX19" fmla="*/ 69850 w 120650"/>
+              <a:gd name="connsiteY19" fmla="*/ 958 h 164204"/>
+              <a:gd name="connsiteX20" fmla="*/ 79375 w 120650"/>
+              <a:gd name="connsiteY20" fmla="*/ 7308 h 164204"/>
+              <a:gd name="connsiteX21" fmla="*/ 85725 w 120650"/>
+              <a:gd name="connsiteY21" fmla="*/ 16833 h 164204"/>
+              <a:gd name="connsiteX22" fmla="*/ 95250 w 120650"/>
+              <a:gd name="connsiteY22" fmla="*/ 26358 h 164204"/>
+              <a:gd name="connsiteX23" fmla="*/ 101600 w 120650"/>
+              <a:gd name="connsiteY23" fmla="*/ 45408 h 164204"/>
+              <a:gd name="connsiteX24" fmla="*/ 107950 w 120650"/>
+              <a:gd name="connsiteY24" fmla="*/ 54933 h 164204"/>
+              <a:gd name="connsiteX25" fmla="*/ 98425 w 120650"/>
+              <a:gd name="connsiteY25" fmla="*/ 58108 h 164204"/>
+              <a:gd name="connsiteX26" fmla="*/ 82550 w 120650"/>
+              <a:gd name="connsiteY26" fmla="*/ 61283 h 164204"/>
+              <a:gd name="connsiteX27" fmla="*/ 66675 w 120650"/>
+              <a:gd name="connsiteY27" fmla="*/ 80333 h 164204"/>
+              <a:gd name="connsiteX28" fmla="*/ 57150 w 120650"/>
+              <a:gd name="connsiteY28" fmla="*/ 83508 h 164204"/>
+              <a:gd name="connsiteX29" fmla="*/ 28575 w 120650"/>
+              <a:gd name="connsiteY29" fmla="*/ 108908 h 164204"/>
+              <a:gd name="connsiteX30" fmla="*/ 22225 w 120650"/>
+              <a:gd name="connsiteY30" fmla="*/ 118433 h 164204"/>
+              <a:gd name="connsiteX31" fmla="*/ 12700 w 120650"/>
+              <a:gd name="connsiteY31" fmla="*/ 124783 h 164204"/>
+              <a:gd name="connsiteX32" fmla="*/ 9525 w 120650"/>
+              <a:gd name="connsiteY32" fmla="*/ 127958 h 164204"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX9" y="connsiteY9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX10" y="connsiteY10"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX11" y="connsiteY11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX12" y="connsiteY12"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX13" y="connsiteY13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX14" y="connsiteY14"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX15" y="connsiteY15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX16" y="connsiteY16"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX17" y="connsiteY17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX18" y="connsiteY18"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX19" y="connsiteY19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX20" y="connsiteY20"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX21" y="connsiteY21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX22" y="connsiteY22"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX23" y="connsiteY23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX24" y="connsiteY24"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX25" y="connsiteY25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX26" y="connsiteY26"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX27" y="connsiteY27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX28" y="connsiteY28"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX29" y="connsiteY29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX30" y="connsiteY30"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX31" y="connsiteY31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX32" y="connsiteY32"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="120650" h="164204">
+                <a:moveTo>
+                  <a:pt x="0" y="20008"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="5292" y="21066"/>
+                  <a:pt x="10822" y="21288"/>
+                  <a:pt x="15875" y="23183"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19448" y="24523"/>
+                  <a:pt x="21987" y="27826"/>
+                  <a:pt x="25400" y="29533"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28393" y="31030"/>
+                  <a:pt x="31750" y="31650"/>
+                  <a:pt x="34925" y="32708"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38100" y="35883"/>
+                  <a:pt x="40906" y="39476"/>
+                  <a:pt x="44450" y="42233"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50474" y="46918"/>
+                  <a:pt x="63500" y="54933"/>
+                  <a:pt x="63500" y="54933"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="81698" y="82230"/>
+                  <a:pt x="57467" y="50106"/>
+                  <a:pt x="79375" y="67633"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="99891" y="84046"/>
+                  <a:pt x="71309" y="72353"/>
+                  <a:pt x="95250" y="80333"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="97367" y="83508"/>
+                  <a:pt x="98902" y="87160"/>
+                  <a:pt x="101600" y="89858"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="104298" y="92556"/>
+                  <a:pt x="109008" y="93033"/>
+                  <a:pt x="111125" y="96208"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="113546" y="99839"/>
+                  <a:pt x="112581" y="104897"/>
+                  <a:pt x="114300" y="108908"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="115803" y="112415"/>
+                  <a:pt x="118533" y="115258"/>
+                  <a:pt x="120650" y="118433"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="115262" y="134597"/>
+                  <a:pt x="121805" y="123436"/>
+                  <a:pt x="107950" y="131133"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="101279" y="134839"/>
+                  <a:pt x="95250" y="139600"/>
+                  <a:pt x="88900" y="143833"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="85725" y="145950"/>
+                  <a:pt x="82995" y="148976"/>
+                  <a:pt x="79375" y="150183"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="69850" y="153358"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="68477" y="155417"/>
+                  <a:pt x="58523" y="176699"/>
+                  <a:pt x="57150" y="153358"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="55490" y="125139"/>
+                  <a:pt x="58234" y="117272"/>
+                  <a:pt x="63500" y="96208"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64558" y="81391"/>
+                  <a:pt x="65687" y="66580"/>
+                  <a:pt x="66675" y="51758"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="67804" y="34829"/>
+                  <a:pt x="65189" y="17272"/>
+                  <a:pt x="69850" y="958"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="70898" y="-2711"/>
+                  <a:pt x="76200" y="5191"/>
+                  <a:pt x="79375" y="7308"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="81492" y="10483"/>
+                  <a:pt x="83282" y="13902"/>
+                  <a:pt x="85725" y="16833"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="88600" y="20282"/>
+                  <a:pt x="93069" y="22433"/>
+                  <a:pt x="95250" y="26358"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="98501" y="32209"/>
+                  <a:pt x="99483" y="39058"/>
+                  <a:pt x="101600" y="45408"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="102807" y="49028"/>
+                  <a:pt x="105833" y="51758"/>
+                  <a:pt x="107950" y="54933"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="104775" y="55991"/>
+                  <a:pt x="101672" y="57296"/>
+                  <a:pt x="98425" y="58108"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="93190" y="59417"/>
+                  <a:pt x="87377" y="58870"/>
+                  <a:pt x="82550" y="61283"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="66426" y="69345"/>
+                  <a:pt x="78831" y="70608"/>
+                  <a:pt x="66675" y="80333"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64062" y="82424"/>
+                  <a:pt x="60325" y="82450"/>
+                  <a:pt x="57150" y="83508"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35402" y="105256"/>
+                  <a:pt x="45572" y="97577"/>
+                  <a:pt x="28575" y="108908"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="26458" y="112083"/>
+                  <a:pt x="24923" y="115735"/>
+                  <a:pt x="22225" y="118433"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19527" y="121131"/>
+                  <a:pt x="15753" y="122493"/>
+                  <a:pt x="12700" y="124783"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11503" y="125681"/>
+                  <a:pt x="10583" y="126900"/>
+                  <a:pt x="9525" y="127958"/>
+                </a:cubicBezTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11566526" y="177799"/>
+            <a:ext cx="333374" cy="142875"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11903075" y="228600"/>
+            <a:ext cx="18288" cy="45719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11582401" y="200026"/>
+            <a:ext cx="204585" cy="97936"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>524400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>417508</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>128709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13995471" y="1096946"/>
+          <a:ext cx="4791680" cy="8556763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>452211</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21939250" y="5191125"/>
+          <a:ext cx="833211" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>564173</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5729653" y="542193"/>
+          <a:ext cx="915866" cy="337038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Top Upper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256442</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>564174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5729654" y="1003788"/>
+          <a:ext cx="915866" cy="337038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Top Lower</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>437678</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12021387" y="568359"/>
+          <a:ext cx="1275041" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>256441</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="864576" y="996462"/>
+          <a:ext cx="4755173" cy="461596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898072" y="1020535"/>
+          <a:ext cx="1945821" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Text Box</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190936</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830036" y="1551214"/>
+          <a:ext cx="1197864" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2032568" y="1551215"/>
+          <a:ext cx="1197864" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173493</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235100" y="1551215"/>
+          <a:ext cx="1197864" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151382</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124603</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4437632" y="1551215"/>
+          <a:ext cx="1197864" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82347</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43633</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701472" y="1152523"/>
+          <a:ext cx="4914286" cy="8676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>572514</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>84640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221449" y="1133473"/>
+          <a:ext cx="4876190" cy="8666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>559080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>472747</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>56068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11703330" y="1114425"/>
+          <a:ext cx="4866667" cy="8657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>459313</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>372980</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17175688" y="1143000"/>
+          <a:ext cx="4866667" cy="8600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>359546</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>311308</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>170376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22648046" y="1123948"/>
+          <a:ext cx="4904762" cy="8571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>297874</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>182969</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28158499" y="1085848"/>
+          <a:ext cx="4838095" cy="8476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>169535</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>140344</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33602285" y="1066798"/>
+          <a:ext cx="4923809" cy="8657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>126910</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>78672</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39131785" y="1085850"/>
+          <a:ext cx="4904762" cy="8657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>65238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>7476</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44642238" y="1090182"/>
+          <a:ext cx="4895238" cy="8628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>613167</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>593500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50143167" y="1076323"/>
+          <a:ext cx="4933333" cy="8647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>580066</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>541352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55682191" y="1085848"/>
+          <a:ext cx="4914286" cy="8704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>527918</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>489204</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61202168" y="1080627"/>
+          <a:ext cx="4914286" cy="8695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>475770</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>465627</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>37013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66722145" y="1066799"/>
+          <a:ext cx="4942857" cy="8685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>419098</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>351812</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76959277" y="1019175"/>
+          <a:ext cx="4831285" cy="8666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>452193</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>432526</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72270693" y="1047749"/>
+          <a:ext cx="4933333" cy="8695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>308882</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>159</xdr:col>
+      <xdr:colOff>368137</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92769418" y="1019175"/>
+          <a:ext cx="4957826" cy="8666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>176890</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>142</xdr:col>
+      <xdr:colOff>253216</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82227961" y="1019175"/>
+          <a:ext cx="4974898" cy="8577072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>160</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>71502</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98017693" y="1019175"/>
+          <a:ext cx="4923809" cy="8619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>5446</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>21160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87567410" y="1019175"/>
+          <a:ext cx="4914286" cy="8580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>176</xdr:col>
+      <xdr:colOff>410322</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160842</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="103264607" y="367393"/>
+          <a:ext cx="4914286" cy="9318449"/>
+          <a:chOff x="103264607" y="367393"/>
+          <a:chExt cx="4914286" cy="9318449"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="103264607" y="1019175"/>
+            <a:ext cx="4914286" cy="8666667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="103944964" y="367393"/>
+            <a:ext cx="3374572" cy="517071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Search</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2172,7 +10705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2188,6 +10723,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="CY1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="FY23" sqref="FY23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2210,7 +10787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Planning/Specials Layout.xlsx
+++ b/Planning/Specials Layout.xlsx
@@ -13,10 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Symbols" sheetId="5" r:id="rId2"/>
-    <sheet name="Examples" sheetId="4" r:id="rId3"/>
-    <sheet name="Time" sheetId="2" r:id="rId4"/>
-    <sheet name="Food or Drink" sheetId="3" r:id="rId5"/>
+    <sheet name="Food or Drink" sheetId="3" r:id="rId2"/>
+    <sheet name="Time" sheetId="2" r:id="rId3"/>
+    <sheet name="Cuisine" sheetId="6" r:id="rId4"/>
+    <sheet name="Sort By" sheetId="8" r:id="rId5"/>
+    <sheet name="Start" sheetId="7" r:id="rId6"/>
+    <sheet name="Symbols" sheetId="5" r:id="rId7"/>
+    <sheet name="Examples" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Home Screen</t>
-  </si>
-  <si>
-    <t>Home</t>
   </si>
   <si>
     <t>Symbols</t>
@@ -41,32 +41,33 @@
   <si>
     <t>Standard Layout</t>
   </si>
+  <si>
+    <t>Search kicks off the overall search for Specials</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Sort By:</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Most Popular</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,16 +90,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6347,8 +6345,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3136445" y="8489128"/>
-            <a:ext cx="2165803" cy="381001"/>
+            <a:off x="2298463" y="8489128"/>
+            <a:ext cx="3003785" cy="381001"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6388,7 +6386,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>Map</a:t>
+              <a:t>Current       Map Area</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7377,6 +7375,2367 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342408</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1771650"/>
+          <a:ext cx="3933333" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="1819275"/>
+          <a:ext cx="3857625" cy="6848475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>544838</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="4812038" cy="644270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8A3B1F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>49328</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163599</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="658928" y="464003"/>
+          <a:ext cx="3226592" cy="461596"/>
+          <a:chOff x="642939" y="2202656"/>
+          <a:chExt cx="2309812" cy="461596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="642939" y="2202656"/>
+            <a:ext cx="2309812" cy="461596"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672210" y="2226469"/>
+            <a:ext cx="1475606" cy="376859"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Food</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> or Drink</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2182812" y="2202657"/>
+            <a:ext cx="722313" cy="422413"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Both</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>445634</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4103234" y="477610"/>
+          <a:ext cx="1224267" cy="422413"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="2343150"/>
+          <a:ext cx="3848100" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="2638424"/>
+          <a:ext cx="3600450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Food &amp; Drink</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Specials</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="3200399"/>
+          <a:ext cx="3600450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Food Specials Only</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="3762375"/>
+          <a:ext cx="3600450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Drink</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Specials Only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2338388" y="4381500"/>
+          <a:ext cx="523875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="1200150"/>
+          <a:ext cx="2571749" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>Select Time</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551958</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="790575"/>
+          <a:ext cx="3933333" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="819150"/>
+          <a:ext cx="3857625" cy="6848475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>477976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087576" y="1733550"/>
+          <a:ext cx="3493950" cy="3050382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561733</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="600075"/>
+          <a:ext cx="1933333" cy="495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="3200400"/>
+          <a:ext cx="3476625" cy="6000750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Group 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="3448050"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>American</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Oval 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="4048125"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Chinese</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Oval 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="4648200"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Thai</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Oval 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="5248275"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pizza</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Oval 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="Group 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="5848350"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Rounded Rectangle 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mexican</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Oval 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="6448425"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vegetarian</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Oval 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="Group 59"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="7048500"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vietnamese</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="Oval 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="8A3B1F"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="70" name="Group 69"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1076325" y="7648575"/>
+          <a:ext cx="3343275" cy="504825"/>
+          <a:chOff x="1076325" y="3448050"/>
+          <a:chExt cx="3343275" cy="504825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1076325" y="3448050"/>
+            <a:ext cx="3343275" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sushi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="Group 71"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3835146" y="3524251"/>
+            <a:ext cx="347472" cy="347472"/>
+            <a:chOff x="8349996" y="4476751"/>
+            <a:chExt cx="347472" cy="347472"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="Oval 72"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8349996" y="4476751"/>
+              <a:ext cx="347472" cy="347472"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="8A3B1F"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="Oval 73"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8409432" y="4536187"/>
+              <a:ext cx="228600" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="8A3B1F"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Down Arrow 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="8391525"/>
+          <a:ext cx="485775" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="8A3B1F"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>475758</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="695325"/>
+          <a:ext cx="3933333" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="752475"/>
+          <a:ext cx="3857625" cy="6848475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9513,7 +11872,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10334,112 +12693,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608990</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="762000"/>
-          <a:ext cx="4876190" cy="4257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733550" y="1200150"/>
-          <a:ext cx="2571749" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1"/>
-            <a:t>Select Time</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10706,7 +12959,7 @@
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10724,6 +12977,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -10734,12 +13095,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10749,7 +13110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10762,41 +13123,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Planning/Specials Layout.xlsx
+++ b/Planning/Specials Layout.xlsx
@@ -8893,15 +8893,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>413317</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>289152</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>140127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8911,8 +8911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="1774031"/>
-          <a:ext cx="2309812" cy="461596"/>
+          <a:off x="16333674" y="7870031"/>
+          <a:ext cx="2325121" cy="461596"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8980,15 +8980,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>71452</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>425238</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>277246</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8998,8 +8998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678671" y="1214436"/>
-          <a:ext cx="2285985" cy="464345"/>
+          <a:off x="16345595" y="7310436"/>
+          <a:ext cx="2301294" cy="464345"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9076,15 +9076,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>229620</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152034</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9094,8 +9094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036094" y="1785938"/>
-          <a:ext cx="2309812" cy="461596"/>
+          <a:off x="18723429" y="7881938"/>
+          <a:ext cx="2325120" cy="461596"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9163,16 +9163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73138</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>108855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9181,8 +9181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1881187" y="761999"/>
-          <a:ext cx="2214563" cy="452438"/>
+          <a:off x="685459" y="489855"/>
+          <a:ext cx="3328648" cy="762001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9210,9 +9210,9 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
+            <a:rPr lang="en-US" sz="3600" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -9220,14 +9220,14 @@
             <a:t>Your</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+            <a:rPr lang="en-US" sz="3600" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> Special</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="1">
+          <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -9241,14 +9241,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9257,8 +9257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2881313" y="2381250"/>
-          <a:ext cx="2440781" cy="461596"/>
+          <a:off x="2901724" y="1319893"/>
+          <a:ext cx="2461191" cy="461596"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9303,14 +9303,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142871</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>416716</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9319,8 +9319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3178965" y="2357437"/>
-          <a:ext cx="2095501" cy="452438"/>
+          <a:off x="3204478" y="1296080"/>
+          <a:ext cx="2110809" cy="452438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9368,14 +9368,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9384,8 +9384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1500188" y="2381251"/>
-          <a:ext cx="1583531" cy="461596"/>
+          <a:off x="1510393" y="1319894"/>
+          <a:ext cx="1598839" cy="461596"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9430,14 +9430,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11905</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>297654</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9446,8 +9446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1833561" y="2357437"/>
-          <a:ext cx="892968" cy="452438"/>
+          <a:off x="1848869" y="1296080"/>
+          <a:ext cx="898071" cy="452438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9495,14 +9495,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9511,8 +9511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="642939" y="2381250"/>
-          <a:ext cx="1202530" cy="461596"/>
+          <a:off x="648041" y="1319893"/>
+          <a:ext cx="1212736" cy="461596"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9557,14 +9557,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11908</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9573,8 +9573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619127" y="2357437"/>
-          <a:ext cx="821530" cy="452438"/>
+          <a:off x="624229" y="1296080"/>
+          <a:ext cx="826633" cy="452438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9620,14 +9620,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>59530</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>159885</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9636,7 +9636,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="671851" y="2666999"/>
+          <a:off x="671851" y="1564822"/>
           <a:ext cx="4958104" cy="1452563"/>
           <a:chOff x="666749" y="2666999"/>
           <a:chExt cx="4917282" cy="1452563"/>
@@ -10000,14 +10000,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>164987</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>93550</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134373</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10016,7 +10016,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="671852" y="3974987"/>
+          <a:off x="671852" y="2872810"/>
           <a:ext cx="4958104" cy="1452563"/>
           <a:chOff x="666750" y="3964782"/>
           <a:chExt cx="4917282" cy="1452563"/>
@@ -10381,15 +10381,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464329</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>205793</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10399,8 +10399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036094" y="1226344"/>
-          <a:ext cx="2285985" cy="464345"/>
+          <a:off x="18723429" y="7322344"/>
+          <a:ext cx="2301293" cy="464345"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10470,14 +10470,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>69056</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>148997</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>77560</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118383</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10486,7 +10486,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="681377" y="5292497"/>
+          <a:off x="681377" y="4190320"/>
           <a:ext cx="4958104" cy="1452563"/>
           <a:chOff x="676275" y="5260181"/>
           <a:chExt cx="4917282" cy="1452563"/>
@@ -10856,14 +10856,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>125864</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10872,7 +10872,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="695665" y="6602864"/>
+          <a:off x="695665" y="5500687"/>
           <a:ext cx="4958104" cy="1452563"/>
           <a:chOff x="690563" y="6536531"/>
           <a:chExt cx="4917282" cy="1452563"/>
@@ -11242,14 +11242,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85045</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76539</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>144577</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>5102</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11258,7 +11258,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="697366" y="7887039"/>
+          <a:off x="697366" y="6784862"/>
           <a:ext cx="4958104" cy="1452563"/>
           <a:chOff x="678657" y="7810501"/>
           <a:chExt cx="4917282" cy="1452563"/>
@@ -11624,18 +11624,505 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416518</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414690</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="230" name="Picture 229"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4702768" y="557892"/>
+          <a:ext cx="610493" cy="603833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="TextBox 245"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3701142" y="653143"/>
+          <a:ext cx="1047751" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Filter</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127568</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>173492</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="247" name="Group 246"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="680357" y="8055429"/>
+          <a:ext cx="4958104" cy="1452563"/>
+          <a:chOff x="678657" y="7810501"/>
+          <a:chExt cx="4917282" cy="1452563"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="248" name="Group 247"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="678657" y="7810501"/>
+            <a:ext cx="4917282" cy="1452563"/>
+            <a:chOff x="666749" y="2666999"/>
+            <a:chExt cx="4917282" cy="1452563"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="250" name="Rectangle 249"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="666749" y="2928937"/>
+              <a:ext cx="4643437" cy="1190625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="251" name="Rounded Rectangle 250"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2250280" y="2964657"/>
+              <a:ext cx="535782" cy="333374"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>6.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="253" name="Rounded Rectangle 252"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2464596" y="3167062"/>
+              <a:ext cx="904873" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>$5.95</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="254" name="Rounded Rectangle 253"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2500312" y="3679030"/>
+              <a:ext cx="2762249" cy="392906"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Los Gringos</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="255" name="Rounded Rectangle 254"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2440781" y="2666999"/>
+              <a:ext cx="3143250" cy="928687"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Next Result</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>...</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="256" name="Rounded Rectangle 255"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4417223" y="3167062"/>
+              <a:ext cx="904873" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>4.2 mi</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="249" name="Picture 248"/>
+          <xdr:cNvPicPr>
+            <a:picLocks/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726282" y="8131968"/>
+            <a:ext cx="1521007" cy="1051560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>10204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11644,7 +12131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="8786811"/>
+          <a:off x="428625" y="8773204"/>
           <a:ext cx="5487080" cy="942295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11689,13 +12176,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>557893</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>23404</xdr:rowOff>
+      <xdr:rowOff>9797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11704,7 +12191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="653143" y="8694964"/>
+          <a:off x="653143" y="8681357"/>
           <a:ext cx="4803321" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27170,8 +27657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q1:AA35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planning/Specials Layout.xlsx
+++ b/Planning/Specials Layout.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jg\Specials\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeff Grinn\Documents\Code\Specials\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="12" r:id="rId1"/>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +356,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -369,7 +375,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -414,7 +426,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Group 3"/>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -427,7 +445,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectangle 4"/>
+            <xdr:cNvPr id="5" name="Rectangle 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -472,7 +496,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 5"/>
+            <xdr:cNvPr id="6" name="Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -529,7 +559,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="7" name="Group 6"/>
+            <xdr:cNvPr id="7" name="Group 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -542,7 +578,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="Oval 18"/>
+              <xdr:cNvPr id="19" name="Oval 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -589,7 +631,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="Oval 19"/>
+              <xdr:cNvPr id="20" name="Oval 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -634,7 +682,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="Oval 20"/>
+              <xdr:cNvPr id="21" name="Oval 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -681,7 +735,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="Oval 21"/>
+              <xdr:cNvPr id="22" name="Oval 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -726,7 +786,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="Oval 22"/>
+              <xdr:cNvPr id="23" name="Oval 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -772,7 +838,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Rectangle 7"/>
+            <xdr:cNvPr id="8" name="Rectangle 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -820,7 +892,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="9" name="Group 8"/>
+            <xdr:cNvPr id="9" name="Group 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -833,7 +911,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="16" name="Block Arc 15"/>
+              <xdr:cNvPr id="16" name="Block Arc 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -882,7 +966,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="17" name="Block Arc 16"/>
+              <xdr:cNvPr id="17" name="Block Arc 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -931,7 +1021,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="Isosceles Triangle 17"/>
+              <xdr:cNvPr id="18" name="Isosceles Triangle 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -977,7 +1073,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Lightning Bolt 9"/>
+            <xdr:cNvPr id="10" name="Lightning Bolt 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1022,7 +1124,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Chevron 10"/>
+            <xdr:cNvPr id="11" name="Chevron 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1071,7 +1179,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Freeform 11"/>
+            <xdr:cNvPr id="12" name="Freeform 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1452,7 +1566,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+            <xdr:cNvPr id="13" name="Rounded Rectangle 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1497,7 +1617,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13"/>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1542,7 +1668,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+            <xdr:cNvPr id="15" name="Rounded Rectangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1604,7 +1736,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1642,7 +1780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1680,7 +1824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1718,7 +1868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1756,7 +1912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1794,7 +1956,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1832,7 +2000,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1872,6 +2046,11 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="31" name="Group 30">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
@@ -1885,7 +2064,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="32" name="Picture 31"/>
+          <xdr:cNvPr id="32" name="Picture 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1908,7 +2093,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Rectangle 32"/>
+          <xdr:cNvPr id="33" name="Rectangle 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1960,7 +2151,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Rectangle 33"/>
+          <xdr:cNvPr id="34" name="Rectangle 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2030,7 +2227,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Group 34"/>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2043,7 +2246,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="Picture 35"/>
+          <xdr:cNvPr id="36" name="Picture 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2066,7 +2275,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Rectangle 36"/>
+          <xdr:cNvPr id="37" name="Rectangle 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2118,7 +2333,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+          <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2188,7 +2409,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2201,7 +2428,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="40" name="Picture 39"/>
+          <xdr:cNvPr id="40" name="Picture 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2224,7 +2457,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvPr id="41" name="Rectangle 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2276,7 +2515,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+          <xdr:cNvPr id="42" name="Rounded Rectangle 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2346,7 +2591,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvPr id="43" name="Group 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2359,7 +2610,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="44" name="Picture 43"/>
+          <xdr:cNvPr id="44" name="Picture 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2382,7 +2639,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvPr id="45" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2434,7 +2697,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+          <xdr:cNvPr id="46" name="Rounded Rectangle 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2504,7 +2773,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvPr id="47" name="Group 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2517,7 +2792,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="48" name="Picture 47"/>
+          <xdr:cNvPr id="48" name="Picture 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2540,7 +2821,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 48"/>
+          <xdr:cNvPr id="49" name="Rectangle 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2592,7 +2879,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+          <xdr:cNvPr id="50" name="Rounded Rectangle 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2662,7 +2955,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Group 50"/>
+        <xdr:cNvPr id="51" name="Group 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2675,7 +2974,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="Picture 51"/>
+          <xdr:cNvPr id="52" name="Picture 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2698,7 +3003,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Rectangle 52"/>
+          <xdr:cNvPr id="53" name="Rectangle 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2750,7 +3061,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+          <xdr:cNvPr id="54" name="Rounded Rectangle 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2820,7 +3137,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvPr id="55" name="Group 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2833,7 +3156,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="56" name="Picture 55"/>
+          <xdr:cNvPr id="56" name="Picture 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2856,7 +3185,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="Rectangle 56"/>
+          <xdr:cNvPr id="57" name="Rectangle 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2908,7 +3243,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
+          <xdr:cNvPr id="58" name="Rounded Rectangle 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2978,7 +3319,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="Group 58"/>
+        <xdr:cNvPr id="59" name="Group 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2991,7 +3338,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="60" name="Picture 59"/>
+          <xdr:cNvPr id="60" name="Picture 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3014,7 +3367,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="Rectangle 60"/>
+          <xdr:cNvPr id="61" name="Rectangle 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3066,7 +3425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+          <xdr:cNvPr id="62" name="Rounded Rectangle 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3136,7 +3501,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="Group 62"/>
+        <xdr:cNvPr id="63" name="Group 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3149,7 +3520,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="64" name="Picture 63"/>
+          <xdr:cNvPr id="64" name="Picture 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3172,7 +3549,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Rectangle 64"/>
+          <xdr:cNvPr id="65" name="Rectangle 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3224,7 +3607,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+          <xdr:cNvPr id="66" name="Rounded Rectangle 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3294,7 +3683,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Rectangle 66"/>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3354,7 +3749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3392,7 +3793,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rectangle 68"/>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3452,7 +3859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 69"/>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3516,7 +3929,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="Group 70"/>
+        <xdr:cNvPr id="71" name="Group 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3529,7 +3948,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="Rectangle 71"/>
+          <xdr:cNvPr id="72" name="Rectangle 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3574,7 +3999,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="Rectangle 72"/>
+          <xdr:cNvPr id="73" name="Rectangle 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3631,7 +4062,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="74" name="Group 73"/>
+          <xdr:cNvPr id="74" name="Group 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3644,7 +4081,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="Oval 85"/>
+            <xdr:cNvPr id="86" name="Oval 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3691,7 +4134,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="Oval 86"/>
+            <xdr:cNvPr id="87" name="Oval 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3736,7 +4185,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="Oval 87"/>
+            <xdr:cNvPr id="88" name="Oval 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3783,7 +4238,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="Oval 88"/>
+            <xdr:cNvPr id="89" name="Oval 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3828,7 +4289,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="Oval 89"/>
+            <xdr:cNvPr id="90" name="Oval 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3874,7 +4341,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="Rectangle 74"/>
+          <xdr:cNvPr id="75" name="Rectangle 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3922,7 +4395,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="76" name="Group 75"/>
+          <xdr:cNvPr id="76" name="Group 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3935,7 +4414,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="Block Arc 82"/>
+            <xdr:cNvPr id="83" name="Block Arc 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3984,7 +4469,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="Block Arc 83"/>
+            <xdr:cNvPr id="84" name="Block Arc 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4033,7 +4524,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="Isosceles Triangle 84"/>
+            <xdr:cNvPr id="85" name="Isosceles Triangle 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4079,7 +4576,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="Lightning Bolt 76"/>
+          <xdr:cNvPr id="77" name="Lightning Bolt 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4124,7 +4627,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="Chevron 77"/>
+          <xdr:cNvPr id="78" name="Chevron 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4173,7 +4682,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="Freeform 78"/>
+          <xdr:cNvPr id="79" name="Freeform 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4554,7 +5069,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
+          <xdr:cNvPr id="80" name="Rounded Rectangle 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4599,7 +5120,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="Rectangle 80"/>
+          <xdr:cNvPr id="81" name="Rectangle 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4644,7 +5171,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="Rounded Rectangle 81"/>
+          <xdr:cNvPr id="82" name="Rounded Rectangle 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4705,7 +5238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90"/>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4772,7 +5311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4839,7 +5384,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4906,7 +5457,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="Group 93"/>
+        <xdr:cNvPr id="94" name="Group 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4919,7 +5476,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="Rectangle 94"/>
+          <xdr:cNvPr id="95" name="Rectangle 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4974,7 +5537,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Oval 95"/>
+          <xdr:cNvPr id="96" name="Oval 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5021,7 +5590,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Oval 96"/>
+          <xdr:cNvPr id="97" name="Oval 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5084,7 +5659,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="Group 97"/>
+        <xdr:cNvPr id="98" name="Group 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5097,7 +5678,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvPr id="99" name="Rectangle 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5152,7 +5739,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="Oval 99"/>
+          <xdr:cNvPr id="100" name="Oval 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5199,7 +5792,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="Oval 100"/>
+          <xdr:cNvPr id="101" name="Oval 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5262,7 +5861,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="Group 101"/>
+        <xdr:cNvPr id="102" name="Group 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5275,7 +5880,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="Rectangle 102"/>
+          <xdr:cNvPr id="103" name="Rectangle 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5330,7 +5941,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="Oval 103"/>
+          <xdr:cNvPr id="104" name="Oval 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5377,7 +5994,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="Oval 104"/>
+          <xdr:cNvPr id="105" name="Oval 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5440,7 +6063,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="106" name="Group 105"/>
+        <xdr:cNvPr id="106" name="Group 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5453,7 +6082,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="Rectangle 106"/>
+          <xdr:cNvPr id="107" name="Rectangle 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5508,7 +6143,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="Oval 107"/>
+          <xdr:cNvPr id="108" name="Oval 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5555,7 +6196,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Oval 108"/>
+          <xdr:cNvPr id="109" name="Oval 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5618,7 +6265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109"/>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5656,7 +6309,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="111" name="Group 110"/>
+        <xdr:cNvPr id="111" name="Group 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5669,7 +6328,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="Rounded Rectangle 111"/>
+          <xdr:cNvPr id="112" name="Rounded Rectangle 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5714,7 +6379,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="Rectangle 112"/>
+          <xdr:cNvPr id="113" name="Rectangle 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5767,7 +6438,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="114" name="Group 113"/>
+          <xdr:cNvPr id="114" name="Group 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5780,7 +6457,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="115" name="Oval 114"/>
+            <xdr:cNvPr id="115" name="Oval 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5827,7 +6510,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="Straight Connector 115"/>
+            <xdr:cNvPr id="116" name="Straight Connector 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="115" idx="5"/>
             </xdr:cNvCxnSpPr>
@@ -5880,7 +6569,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="Group 116"/>
+        <xdr:cNvPr id="117" name="Group 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5893,7 +6588,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="118" name="Picture 117"/>
+          <xdr:cNvPr id="118" name="Picture 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5916,7 +6617,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="Rectangle 118"/>
+          <xdr:cNvPr id="119" name="Rectangle 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5968,7 +6675,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="Rounded Rectangle 119"/>
+          <xdr:cNvPr id="120" name="Rounded Rectangle 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6038,7 +6751,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121" name="Group 120"/>
+        <xdr:cNvPr id="121" name="Group 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6051,7 +6770,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rounded Rectangle 121"/>
+          <xdr:cNvPr id="122" name="Rounded Rectangle 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6096,7 +6821,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Rectangle 122"/>
+          <xdr:cNvPr id="123" name="Rectangle 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6148,7 +6879,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rounded Rectangle 123"/>
+          <xdr:cNvPr id="124" name="Rounded Rectangle 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6218,7 +6955,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="Group 124"/>
+        <xdr:cNvPr id="125" name="Group 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6231,7 +6974,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="Rounded Rectangle 125"/>
+          <xdr:cNvPr id="126" name="Rounded Rectangle 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6276,7 +7025,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="Rectangle 126"/>
+          <xdr:cNvPr id="127" name="Rectangle 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6328,7 +7083,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="Rounded Rectangle 127"/>
+          <xdr:cNvPr id="128" name="Rounded Rectangle 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6398,7 +7159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Flowchart: Alternate Process 128"/>
+        <xdr:cNvPr id="129" name="Flowchart: Alternate Process 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6452,7 +7219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="Picture 129"/>
+        <xdr:cNvPr id="130" name="Picture 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6490,7 +7263,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="131" name="Group 130"/>
+        <xdr:cNvPr id="131" name="Group 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6503,7 +7282,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="132" name="Group 131"/>
+          <xdr:cNvPr id="132" name="Group 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6516,7 +7301,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="142" name="Rounded Rectangle 141"/>
+            <xdr:cNvPr id="142" name="Rounded Rectangle 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6561,7 +7352,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="143" name="Rectangle 142"/>
+            <xdr:cNvPr id="143" name="Rectangle 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6614,7 +7411,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="133" name="Group 132"/>
+          <xdr:cNvPr id="133" name="Group 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6627,7 +7430,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="134" name="Group 133"/>
+            <xdr:cNvPr id="134" name="Group 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -6640,7 +7449,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="139" name="Flowchart: Terminator 138"/>
+              <xdr:cNvPr id="139" name="Flowchart: Terminator 138">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6690,7 +7505,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="140" name="Oval 139"/>
+              <xdr:cNvPr id="140" name="Oval 139">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6739,7 +7560,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="141" name="Isosceles Triangle 140"/>
+              <xdr:cNvPr id="141" name="Isosceles Triangle 140">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -6787,7 +7614,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="135" name="Isosceles Triangle 134"/>
+            <xdr:cNvPr id="135" name="Isosceles Triangle 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6834,7 +7667,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="136" name="Isosceles Triangle 135"/>
+            <xdr:cNvPr id="136" name="Isosceles Triangle 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6881,7 +7720,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="137" name="Isosceles Triangle 136"/>
+            <xdr:cNvPr id="137" name="Isosceles Triangle 136">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6928,7 +7773,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="138" name="Isosceles Triangle 137"/>
+            <xdr:cNvPr id="138" name="Isosceles Triangle 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6992,7 +7843,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="144" name="Group 143"/>
+        <xdr:cNvPr id="144" name="Group 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7005,7 +7862,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="Rounded Rectangle 144"/>
+          <xdr:cNvPr id="145" name="Rounded Rectangle 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7050,7 +7913,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 145"/>
+          <xdr:cNvPr id="146" name="Rectangle 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7118,7 +7987,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="147" name="Group 146"/>
+        <xdr:cNvPr id="147" name="Group 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7131,7 +8006,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="148" name="Group 147"/>
+          <xdr:cNvPr id="148" name="Group 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7144,7 +8025,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="158" name="Rounded Rectangle 157"/>
+            <xdr:cNvPr id="158" name="Rounded Rectangle 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7196,7 +8083,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="159" name="Rectangle 158"/>
+            <xdr:cNvPr id="159" name="Rectangle 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7252,7 +8145,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="149" name="Group 148"/>
+          <xdr:cNvPr id="149" name="Group 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7265,7 +8164,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="150" name="Group 149"/>
+            <xdr:cNvPr id="150" name="Group 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -7278,7 +8183,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="155" name="Flowchart: Terminator 154"/>
+              <xdr:cNvPr id="155" name="Flowchart: Terminator 154">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7335,7 +8246,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="156" name="Oval 155"/>
+              <xdr:cNvPr id="156" name="Oval 155">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7391,7 +8308,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="157" name="Isosceles Triangle 156"/>
+              <xdr:cNvPr id="157" name="Isosceles Triangle 156">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -7446,7 +8369,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="151" name="Isosceles Triangle 150"/>
+            <xdr:cNvPr id="151" name="Isosceles Triangle 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7500,7 +8429,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="152" name="Isosceles Triangle 151"/>
+            <xdr:cNvPr id="152" name="Isosceles Triangle 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7554,7 +8489,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="Isosceles Triangle 152"/>
+            <xdr:cNvPr id="153" name="Isosceles Triangle 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7608,7 +8549,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="154" name="Isosceles Triangle 153"/>
+            <xdr:cNvPr id="154" name="Isosceles Triangle 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7679,7 +8626,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="160" name="Group 159"/>
+        <xdr:cNvPr id="160" name="Group 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7692,7 +8645,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="Rounded Rectangle 160"/>
+          <xdr:cNvPr id="161" name="Rounded Rectangle 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7737,7 +8696,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="Rectangle 161"/>
+          <xdr:cNvPr id="162" name="Rectangle 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7803,7 +8768,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="206" name="Group 205"/>
+        <xdr:cNvPr id="206" name="Group 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7816,7 +8787,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="163" name="Group 162"/>
+          <xdr:cNvPr id="163" name="Group 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7829,7 +8806,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="164" name="Rounded Rectangle 163"/>
+            <xdr:cNvPr id="164" name="Rounded Rectangle 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7874,7 +8857,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="165" name="Rectangle 164"/>
+            <xdr:cNvPr id="165" name="Rectangle 164">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7928,7 +8917,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="Rectangle 165"/>
+          <xdr:cNvPr id="166" name="Rectangle 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7994,7 +8989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Picture 166"/>
+        <xdr:cNvPr id="167" name="Picture 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8032,7 +9033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="Rounded Rectangle 167"/>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8101,7 +9108,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="169" name="Group 168"/>
+        <xdr:cNvPr id="169" name="Group 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8114,7 +9127,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="170" name="Rounded Rectangle 169"/>
+          <xdr:cNvPr id="170" name="Rounded Rectangle 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8159,7 +9178,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="Rectangle 170"/>
+          <xdr:cNvPr id="171" name="Rectangle 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8225,7 +9250,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="172" name="Group 171"/>
+        <xdr:cNvPr id="172" name="Group 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8238,7 +9269,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="Rounded Rectangle 172"/>
+          <xdr:cNvPr id="173" name="Rounded Rectangle 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8283,7 +9320,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="174" name="Rectangle 173"/>
+          <xdr:cNvPr id="174" name="Rectangle 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8351,7 +9394,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="175" name="Rounded Rectangle 174"/>
+          <xdr:cNvPr id="175" name="Rounded Rectangle 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8421,7 +9470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="Rounded Rectangle 175"/>
+        <xdr:cNvPr id="176" name="Rounded Rectangle 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8486,7 +9541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="Rounded Rectangle 176"/>
+        <xdr:cNvPr id="177" name="Rounded Rectangle 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8546,7 +9607,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="178" name="Group 177"/>
+        <xdr:cNvPr id="178" name="Group 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8559,7 +9626,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="179" name="Flowchart: Terminator 178"/>
+          <xdr:cNvPr id="179" name="Flowchart: Terminator 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8611,7 +9684,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="180" name="Oval 179"/>
+          <xdr:cNvPr id="180" name="Oval 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8658,7 +9737,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="181" name="Group 180"/>
+          <xdr:cNvPr id="181" name="Group 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8674,7 +9759,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="182" name="Isosceles Triangle 181"/>
+            <xdr:cNvPr id="182" name="Isosceles Triangle 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8717,7 +9808,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="183" name="Isosceles Triangle 182"/>
+            <xdr:cNvPr id="183" name="Isosceles Triangle 182">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8760,7 +9857,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="184" name="Isosceles Triangle 183"/>
+            <xdr:cNvPr id="184" name="Isosceles Triangle 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8803,7 +9906,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="Isosceles Triangle 184"/>
+            <xdr:cNvPr id="185" name="Isosceles Triangle 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8846,7 +9955,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="186" name="Isosceles Triangle 185"/>
+            <xdr:cNvPr id="186" name="Isosceles Triangle 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8906,7 +10021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="Rounded Rectangle 202"/>
+        <xdr:cNvPr id="203" name="Rounded Rectangle 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8993,7 +10114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="Rounded Rectangle 211"/>
+        <xdr:cNvPr id="212" name="Rounded Rectangle 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9089,7 +10216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="Rounded Rectangle 213"/>
+        <xdr:cNvPr id="214" name="Rounded Rectangle 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9176,7 +10309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="TextBox 216"/>
+        <xdr:cNvPr id="217" name="TextBox 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9252,7 +10391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="Rounded Rectangle 224"/>
+        <xdr:cNvPr id="225" name="Rounded Rectangle 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9314,7 +10459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="221" name="TextBox 220"/>
+        <xdr:cNvPr id="221" name="TextBox 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9379,7 +10530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="Rounded Rectangle 221"/>
+        <xdr:cNvPr id="222" name="Rounded Rectangle 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9441,7 +10598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="TextBox 219"/>
+        <xdr:cNvPr id="220" name="TextBox 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9506,7 +10669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="Rounded Rectangle 223"/>
+        <xdr:cNvPr id="224" name="Rounded Rectangle 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9568,7 +10737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="TextBox 217"/>
+        <xdr:cNvPr id="218" name="TextBox 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9631,7 +10806,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="231" name="Group 230"/>
+        <xdr:cNvPr id="231" name="Group 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -9644,7 +10825,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="Rectangle 210"/>
+          <xdr:cNvPr id="211" name="Rectangle 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9689,7 +10876,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="226" name="Picture 225"/>
+          <xdr:cNvPr id="226" name="Picture 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -9712,7 +10905,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="223" name="Rounded Rectangle 222"/>
+          <xdr:cNvPr id="223" name="Rounded Rectangle 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9760,7 +10959,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="227" name="Rounded Rectangle 226"/>
+          <xdr:cNvPr id="227" name="Rounded Rectangle 226">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9808,7 +11013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="228" name="Rounded Rectangle 227"/>
+          <xdr:cNvPr id="228" name="Rounded Rectangle 227">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9884,7 +11095,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="Rounded Rectangle 218"/>
+          <xdr:cNvPr id="219" name="Rounded Rectangle 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9945,7 +11162,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="229" name="Rounded Rectangle 228"/>
+          <xdr:cNvPr id="229" name="Rounded Rectangle 228">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10011,7 +11234,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="285" name="Group 284"/>
+        <xdr:cNvPr id="285" name="Group 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10024,7 +11253,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="232" name="Group 231"/>
+          <xdr:cNvPr id="232" name="Group 231">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10037,7 +11272,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="233" name="Rectangle 232"/>
+            <xdr:cNvPr id="233" name="Rectangle 232">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10082,7 +11323,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="235" name="Rounded Rectangle 234"/>
+            <xdr:cNvPr id="235" name="Rounded Rectangle 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10130,7 +11377,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="236" name="Rounded Rectangle 235"/>
+            <xdr:cNvPr id="236" name="Rounded Rectangle 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10178,7 +11431,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="237" name="Rounded Rectangle 236"/>
+            <xdr:cNvPr id="237" name="Rounded Rectangle 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10251,7 +11510,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="238" name="Rounded Rectangle 237"/>
+            <xdr:cNvPr id="238" name="Rounded Rectangle 237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10304,7 +11569,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="239" name="Rounded Rectangle 238"/>
+            <xdr:cNvPr id="239" name="Rounded Rectangle 238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10355,7 +11626,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="243" name="Picture 242"/>
+          <xdr:cNvPr id="243" name="Picture 242">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks/>
           </xdr:cNvPicPr>
@@ -10394,7 +11671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="Rounded Rectangle 251"/>
+        <xdr:cNvPr id="252" name="Rounded Rectangle 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10481,7 +11764,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="286" name="Group 285"/>
+        <xdr:cNvPr id="286" name="Group 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10494,7 +11783,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="261" name="Group 260"/>
+          <xdr:cNvPr id="261" name="Group 260">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10507,7 +11802,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="262" name="Rectangle 261"/>
+            <xdr:cNvPr id="262" name="Rectangle 261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10552,7 +11853,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="264" name="Rounded Rectangle 263"/>
+            <xdr:cNvPr id="264" name="Rounded Rectangle 263">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10600,7 +11907,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="265" name="Rounded Rectangle 264"/>
+            <xdr:cNvPr id="265" name="Rounded Rectangle 264">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10648,7 +11961,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="266" name="Rounded Rectangle 265"/>
+            <xdr:cNvPr id="266" name="Rounded Rectangle 265">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10716,7 +12035,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="267" name="Rounded Rectangle 266"/>
+            <xdr:cNvPr id="267" name="Rounded Rectangle 266">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10777,7 +12102,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="268" name="Rounded Rectangle 267"/>
+            <xdr:cNvPr id="268" name="Rounded Rectangle 267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10828,7 +12159,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="240" name="Picture 239"/>
+          <xdr:cNvPr id="240" name="Picture 239">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks/>
           </xdr:cNvPicPr>
@@ -10867,7 +12204,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="187" name="Group 186"/>
+        <xdr:cNvPr id="187" name="Group 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10880,7 +12223,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="277" name="Group 276"/>
+          <xdr:cNvPr id="277" name="Group 276">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10893,7 +12242,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="278" name="Rectangle 277"/>
+            <xdr:cNvPr id="278" name="Rectangle 277">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10938,7 +12293,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="280" name="Rounded Rectangle 279"/>
+            <xdr:cNvPr id="280" name="Rounded Rectangle 279">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10986,7 +12347,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="281" name="Rounded Rectangle 280"/>
+            <xdr:cNvPr id="281" name="Rounded Rectangle 280">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11034,7 +12401,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="282" name="Rounded Rectangle 281"/>
+            <xdr:cNvPr id="282" name="Rounded Rectangle 281">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11102,7 +12475,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="283" name="Rounded Rectangle 282"/>
+            <xdr:cNvPr id="283" name="Rounded Rectangle 282">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11163,7 +12542,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="284" name="Rounded Rectangle 283"/>
+            <xdr:cNvPr id="284" name="Rounded Rectangle 283">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11214,7 +12599,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="241" name="Picture 240"/>
+          <xdr:cNvPr id="241" name="Picture 240">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks/>
           </xdr:cNvPicPr>
@@ -11253,7 +12644,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="188" name="Group 187"/>
+        <xdr:cNvPr id="188" name="Group 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11266,7 +12663,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="289" name="Group 288"/>
+          <xdr:cNvPr id="289" name="Group 288">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11279,7 +12682,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="291" name="Rectangle 290"/>
+            <xdr:cNvPr id="291" name="Rectangle 290">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11324,7 +12733,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="292" name="Rounded Rectangle 291"/>
+            <xdr:cNvPr id="292" name="Rounded Rectangle 291">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11372,7 +12787,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="293" name="Rounded Rectangle 292"/>
+            <xdr:cNvPr id="293" name="Rounded Rectangle 292">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11420,7 +12841,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="294" name="Rounded Rectangle 293"/>
+            <xdr:cNvPr id="294" name="Rounded Rectangle 293">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11488,7 +12915,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="295" name="Rounded Rectangle 294"/>
+            <xdr:cNvPr id="295" name="Rounded Rectangle 294">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11549,7 +12982,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="296" name="Rounded Rectangle 295"/>
+            <xdr:cNvPr id="296" name="Rounded Rectangle 295">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11600,7 +13039,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="242" name="Picture 241"/>
+          <xdr:cNvPr id="242" name="Picture 241">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks/>
           </xdr:cNvPicPr>
@@ -11639,7 +13084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="230" name="Picture 229"/>
+        <xdr:cNvPr id="230" name="Picture 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11677,7 +13128,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="TextBox 245"/>
+        <xdr:cNvPr id="246" name="TextBox 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11740,7 +13197,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="247" name="Group 246"/>
+        <xdr:cNvPr id="247" name="Group 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -11753,7 +13216,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="248" name="Group 247"/>
+          <xdr:cNvPr id="248" name="Group 247">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11766,7 +13235,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="250" name="Rectangle 249"/>
+            <xdr:cNvPr id="250" name="Rectangle 249">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11811,7 +13286,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="251" name="Rounded Rectangle 250"/>
+            <xdr:cNvPr id="251" name="Rounded Rectangle 250">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11859,7 +13340,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="253" name="Rounded Rectangle 252"/>
+            <xdr:cNvPr id="253" name="Rounded Rectangle 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11907,7 +13394,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="254" name="Rounded Rectangle 253"/>
+            <xdr:cNvPr id="254" name="Rounded Rectangle 253">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11975,7 +13468,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="255" name="Rounded Rectangle 254"/>
+            <xdr:cNvPr id="255" name="Rounded Rectangle 254">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12036,7 +13535,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="256" name="Rounded Rectangle 255"/>
+            <xdr:cNvPr id="256" name="Rounded Rectangle 255">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12087,7 +13592,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="249" name="Picture 248"/>
+          <xdr:cNvPr id="249" name="Picture 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks/>
           </xdr:cNvPicPr>
@@ -12126,7 +13637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="Rectangle 188"/>
+        <xdr:cNvPr id="189" name="Rectangle 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12186,7 +13703,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="Rectangle 189"/>
+        <xdr:cNvPr id="190" name="Rectangle 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12251,7 +13774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12294,7 +13823,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="238" name="Group 237"/>
+        <xdr:cNvPr id="238" name="Group 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -12307,7 +13842,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="167" name="Rectangle 166"/>
+          <xdr:cNvPr id="167" name="Rectangle 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12352,7 +13893,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="168" name="Group 167"/>
+          <xdr:cNvPr id="168" name="Group 167">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -12365,7 +13912,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="169" name="Rectangle 168"/>
+            <xdr:cNvPr id="169" name="Rectangle 168">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12410,7 +13963,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="170" name="Rectangle 169"/>
+            <xdr:cNvPr id="170" name="Rectangle 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12467,7 +14026,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="171" name="Group 170"/>
+            <xdr:cNvPr id="171" name="Group 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -12480,7 +14045,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="183" name="Oval 182"/>
+              <xdr:cNvPr id="183" name="Oval 182">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12527,7 +14098,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="184" name="Oval 183"/>
+              <xdr:cNvPr id="184" name="Oval 183">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12572,7 +14149,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="185" name="Oval 184"/>
+              <xdr:cNvPr id="185" name="Oval 184">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12619,7 +14202,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="186" name="Oval 185"/>
+              <xdr:cNvPr id="186" name="Oval 185">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12664,7 +14253,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="187" name="Oval 186"/>
+              <xdr:cNvPr id="187" name="Oval 186">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12710,7 +14305,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="172" name="Rectangle 171"/>
+            <xdr:cNvPr id="172" name="Rectangle 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12758,7 +14359,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="173" name="Group 172"/>
+            <xdr:cNvPr id="173" name="Group 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -12771,7 +14378,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="180" name="Block Arc 179"/>
+              <xdr:cNvPr id="180" name="Block Arc 179">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12820,7 +14433,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="181" name="Block Arc 180"/>
+              <xdr:cNvPr id="181" name="Block Arc 180">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12869,7 +14488,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="182" name="Isosceles Triangle 181"/>
+              <xdr:cNvPr id="182" name="Isosceles Triangle 181">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -12915,7 +14540,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="174" name="Lightning Bolt 173"/>
+            <xdr:cNvPr id="174" name="Lightning Bolt 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12960,7 +14591,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="175" name="Chevron 174"/>
+            <xdr:cNvPr id="175" name="Chevron 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13009,7 +14646,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="176" name="Freeform 175"/>
+            <xdr:cNvPr id="176" name="Freeform 175">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13390,7 +15033,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="177" name="Rounded Rectangle 176"/>
+            <xdr:cNvPr id="177" name="Rounded Rectangle 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13435,7 +15084,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="178" name="Rectangle 177"/>
+            <xdr:cNvPr id="178" name="Rectangle 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13480,7 +15135,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="179" name="Rounded Rectangle 178"/>
+            <xdr:cNvPr id="179" name="Rounded Rectangle 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13542,7 +15203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13580,7 +15247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13618,7 +15291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13656,7 +15335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13694,7 +15379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13732,7 +15423,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13770,7 +15467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13810,6 +15513,11 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="Group 12">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
@@ -13823,7 +15531,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPr id="10" name="Picture 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -13846,7 +15560,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13898,7 +15618,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13968,7 +15694,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -13981,7 +15713,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Picture 14"/>
+          <xdr:cNvPr id="15" name="Picture 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14004,7 +15742,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvPr id="16" name="Rectangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14056,7 +15800,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+          <xdr:cNvPr id="17" name="Rounded Rectangle 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14126,7 +15876,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14139,7 +15895,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="Picture 26"/>
+          <xdr:cNvPr id="27" name="Picture 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14162,7 +15924,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Rectangle 27"/>
+          <xdr:cNvPr id="28" name="Rectangle 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14214,7 +15982,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+          <xdr:cNvPr id="29" name="Rounded Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14284,7 +16058,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvPr id="43" name="Group 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14297,7 +16077,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="44" name="Picture 43"/>
+          <xdr:cNvPr id="44" name="Picture 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14320,7 +16106,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvPr id="45" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14372,7 +16164,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+          <xdr:cNvPr id="46" name="Rounded Rectangle 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14442,7 +16240,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="Group 50"/>
+        <xdr:cNvPr id="51" name="Group 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14455,7 +16259,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="Picture 51"/>
+          <xdr:cNvPr id="52" name="Picture 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14478,7 +16288,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Rectangle 52"/>
+          <xdr:cNvPr id="53" name="Rectangle 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14530,7 +16346,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+          <xdr:cNvPr id="54" name="Rounded Rectangle 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14600,7 +16422,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvPr id="55" name="Group 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14613,7 +16441,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="56" name="Picture 55"/>
+          <xdr:cNvPr id="56" name="Picture 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14636,7 +16470,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="Rectangle 56"/>
+          <xdr:cNvPr id="57" name="Rectangle 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14688,7 +16528,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
+          <xdr:cNvPr id="58" name="Rounded Rectangle 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14758,7 +16604,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="Group 62"/>
+        <xdr:cNvPr id="63" name="Group 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14771,7 +16623,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="64" name="Picture 63"/>
+          <xdr:cNvPr id="64" name="Picture 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14794,7 +16652,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Rectangle 64"/>
+          <xdr:cNvPr id="65" name="Rectangle 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14846,7 +16710,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+          <xdr:cNvPr id="66" name="Rounded Rectangle 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14916,7 +16786,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="67" name="Group 66"/>
+        <xdr:cNvPr id="67" name="Group 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -14929,7 +16805,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="68" name="Picture 67"/>
+          <xdr:cNvPr id="68" name="Picture 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -14952,7 +16834,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="Rectangle 68"/>
+          <xdr:cNvPr id="69" name="Rectangle 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15004,7 +16892,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+          <xdr:cNvPr id="70" name="Rounded Rectangle 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15074,7 +16968,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="75" name="Group 74"/>
+        <xdr:cNvPr id="75" name="Group 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -15087,7 +16987,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="76" name="Picture 75"/>
+          <xdr:cNvPr id="76" name="Picture 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -15110,7 +17016,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="Rectangle 76"/>
+          <xdr:cNvPr id="77" name="Rectangle 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15162,7 +17074,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="Rounded Rectangle 77"/>
+          <xdr:cNvPr id="78" name="Rounded Rectangle 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15232,7 +17150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15292,7 +17216,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15330,7 +17260,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvPr id="110" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15390,7 +17326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="Rectangle 110"/>
+        <xdr:cNvPr id="111" name="Rectangle 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15454,7 +17396,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="112" name="Group 111"/>
+        <xdr:cNvPr id="112" name="Group 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -15467,7 +17415,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="Rectangle 112"/>
+          <xdr:cNvPr id="113" name="Rectangle 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15512,7 +17466,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="Rectangle 113"/>
+          <xdr:cNvPr id="114" name="Rectangle 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15569,7 +17529,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="115" name="Group 114"/>
+          <xdr:cNvPr id="115" name="Group 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15582,7 +17548,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="127" name="Oval 126"/>
+            <xdr:cNvPr id="127" name="Oval 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15629,7 +17601,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="128" name="Oval 127"/>
+            <xdr:cNvPr id="128" name="Oval 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15674,7 +17652,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="Oval 128"/>
+            <xdr:cNvPr id="129" name="Oval 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15721,7 +17705,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="130" name="Oval 129"/>
+            <xdr:cNvPr id="130" name="Oval 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15766,7 +17756,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="131" name="Oval 130"/>
+            <xdr:cNvPr id="131" name="Oval 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15812,7 +17808,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="Rectangle 115"/>
+          <xdr:cNvPr id="116" name="Rectangle 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15860,7 +17862,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="117" name="Group 116"/>
+          <xdr:cNvPr id="117" name="Group 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15873,7 +17881,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="124" name="Block Arc 123"/>
+            <xdr:cNvPr id="124" name="Block Arc 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15922,7 +17936,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="125" name="Block Arc 124"/>
+            <xdr:cNvPr id="125" name="Block Arc 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15971,7 +17991,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="126" name="Isosceles Triangle 125"/>
+            <xdr:cNvPr id="126" name="Isosceles Triangle 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -16017,7 +18043,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="Lightning Bolt 117"/>
+          <xdr:cNvPr id="118" name="Lightning Bolt 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16062,7 +18094,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="Chevron 118"/>
+          <xdr:cNvPr id="119" name="Chevron 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16111,7 +18149,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="Freeform 119"/>
+          <xdr:cNvPr id="120" name="Freeform 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16492,7 +18536,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="Rounded Rectangle 120"/>
+          <xdr:cNvPr id="121" name="Rounded Rectangle 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16537,7 +18587,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 121"/>
+          <xdr:cNvPr id="122" name="Rectangle 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16582,7 +18638,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Rounded Rectangle 122"/>
+          <xdr:cNvPr id="123" name="Rounded Rectangle 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16643,7 +18705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvPr id="81" name="Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16710,7 +18778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvPr id="82" name="Rectangle 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16777,7 +18851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvPr id="83" name="Rectangle 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16844,7 +18924,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvPr id="22" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -16857,7 +18943,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectangle 19"/>
+          <xdr:cNvPr id="20" name="Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16912,7 +19004,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Oval 20"/>
+          <xdr:cNvPr id="21" name="Oval 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16959,7 +19057,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="Oval 83"/>
+          <xdr:cNvPr id="84" name="Oval 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17022,7 +19126,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="Group 22"/>
+        <xdr:cNvPr id="23" name="Group 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17035,7 +19145,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 84"/>
+          <xdr:cNvPr id="85" name="Rectangle 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17090,7 +19206,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Oval 85"/>
+          <xdr:cNvPr id="86" name="Oval 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17137,7 +19259,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Oval 86"/>
+          <xdr:cNvPr id="87" name="Oval 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17200,7 +19328,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="88" name="Group 87"/>
+        <xdr:cNvPr id="88" name="Group 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17213,7 +19347,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="Rectangle 88"/>
+          <xdr:cNvPr id="89" name="Rectangle 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17268,7 +19408,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="Oval 89"/>
+          <xdr:cNvPr id="90" name="Oval 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17315,7 +19461,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="Oval 90"/>
+          <xdr:cNvPr id="91" name="Oval 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17378,7 +19530,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="92" name="Group 91"/>
+        <xdr:cNvPr id="92" name="Group 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17391,7 +19549,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvPr id="93" name="Rectangle 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17446,7 +19610,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="Oval 93"/>
+          <xdr:cNvPr id="94" name="Oval 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17493,7 +19663,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="Oval 94"/>
+          <xdr:cNvPr id="95" name="Oval 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17556,7 +19732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17594,7 +19776,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17607,7 +19795,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="Rounded Rectangle 73"/>
+          <xdr:cNvPr id="74" name="Rounded Rectangle 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17652,7 +19846,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="Rectangle 79"/>
+          <xdr:cNvPr id="80" name="Rectangle 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17705,7 +19905,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
+          <xdr:cNvPr id="32" name="Group 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -17718,7 +19924,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="Oval 96"/>
+            <xdr:cNvPr id="97" name="Oval 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17765,7 +19977,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="30" name="Straight Connector 29"/>
+            <xdr:cNvPr id="30" name="Straight Connector 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="97" idx="5"/>
             </xdr:cNvCxnSpPr>
@@ -17818,7 +20036,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="96" name="Group 95"/>
+        <xdr:cNvPr id="96" name="Group 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17831,7 +20055,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="98" name="Picture 97"/>
+          <xdr:cNvPr id="98" name="Picture 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -17854,7 +20084,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvPr id="99" name="Rectangle 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17906,7 +20142,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="Rounded Rectangle 99"/>
+          <xdr:cNvPr id="100" name="Rounded Rectangle 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17976,7 +20218,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -17989,7 +20237,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="Rounded Rectangle 100"/>
+          <xdr:cNvPr id="101" name="Rounded Rectangle 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18034,7 +20288,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 101"/>
+          <xdr:cNvPr id="102" name="Rectangle 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18086,7 +20346,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+          <xdr:cNvPr id="103" name="Rounded Rectangle 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18156,7 +20422,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="Group 107"/>
+        <xdr:cNvPr id="108" name="Group 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -18169,7 +20441,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Rounded Rectangle 108"/>
+          <xdr:cNvPr id="109" name="Rounded Rectangle 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18214,7 +20492,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="Rectangle 131"/>
+          <xdr:cNvPr id="132" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18266,7 +20550,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rounded Rectangle 132"/>
+          <xdr:cNvPr id="133" name="Rounded Rectangle 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18336,7 +20626,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Flowchart: Alternate Process 24"/>
+        <xdr:cNvPr id="25" name="Flowchart: Alternate Process 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18390,7 +20686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -18428,7 +20730,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -18441,7 +20749,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="142" name="Group 141"/>
+          <xdr:cNvPr id="142" name="Group 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -18454,7 +20768,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="143" name="Rounded Rectangle 142"/>
+            <xdr:cNvPr id="143" name="Rounded Rectangle 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18499,7 +20819,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="144" name="Rectangle 143"/>
+            <xdr:cNvPr id="144" name="Rectangle 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18552,7 +20878,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="37" name="Group 36"/>
+          <xdr:cNvPr id="37" name="Group 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -18565,7 +20897,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="36" name="Group 35"/>
+            <xdr:cNvPr id="36" name="Group 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -18578,7 +20916,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="31" name="Flowchart: Terminator 30"/>
+              <xdr:cNvPr id="31" name="Flowchart: Terminator 30">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -18628,7 +20972,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="33" name="Oval 32"/>
+              <xdr:cNvPr id="33" name="Oval 32">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -18677,7 +21027,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="34" name="Isosceles Triangle 33"/>
+              <xdr:cNvPr id="34" name="Isosceles Triangle 33">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -18725,7 +21081,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="146" name="Isosceles Triangle 145"/>
+            <xdr:cNvPr id="146" name="Isosceles Triangle 145">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18772,7 +21134,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="147" name="Isosceles Triangle 146"/>
+            <xdr:cNvPr id="147" name="Isosceles Triangle 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18819,7 +21187,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="149" name="Isosceles Triangle 148"/>
+            <xdr:cNvPr id="149" name="Isosceles Triangle 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18866,7 +21240,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="152" name="Isosceles Triangle 151"/>
+            <xdr:cNvPr id="152" name="Isosceles Triangle 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18930,7 +21310,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="200" name="Group 199"/>
+        <xdr:cNvPr id="200" name="Group 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -18943,7 +21329,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="Rounded Rectangle 209"/>
+          <xdr:cNvPr id="210" name="Rounded Rectangle 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18988,7 +21380,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="Rectangle 210"/>
+          <xdr:cNvPr id="211" name="Rectangle 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -19056,7 +21454,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="225" name="Group 224"/>
+        <xdr:cNvPr id="225" name="Group 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -19069,7 +21473,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="226" name="Group 225"/>
+          <xdr:cNvPr id="226" name="Group 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -19082,7 +21492,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="236" name="Rounded Rectangle 235"/>
+            <xdr:cNvPr id="236" name="Rounded Rectangle 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19127,7 +21543,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="237" name="Rectangle 236"/>
+            <xdr:cNvPr id="237" name="Rectangle 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000ED000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19180,7 +21602,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="227" name="Group 226"/>
+          <xdr:cNvPr id="227" name="Group 226">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -19193,7 +21621,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="228" name="Group 227"/>
+            <xdr:cNvPr id="228" name="Group 227">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -19206,7 +21640,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="233" name="Flowchart: Terminator 232"/>
+              <xdr:cNvPr id="233" name="Flowchart: Terminator 232">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E9000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -19256,7 +21696,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="234" name="Oval 233"/>
+              <xdr:cNvPr id="234" name="Oval 233">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EA000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -19305,7 +21751,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="235" name="Isosceles Triangle 234"/>
+              <xdr:cNvPr id="235" name="Isosceles Triangle 234">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EB000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -19353,7 +21805,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="229" name="Isosceles Triangle 228"/>
+            <xdr:cNvPr id="229" name="Isosceles Triangle 228">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19400,7 +21858,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="230" name="Isosceles Triangle 229"/>
+            <xdr:cNvPr id="230" name="Isosceles Triangle 229">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19447,7 +21911,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="231" name="Isosceles Triangle 230"/>
+            <xdr:cNvPr id="231" name="Isosceles Triangle 230">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19494,7 +21964,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="232" name="Isosceles Triangle 231"/>
+            <xdr:cNvPr id="232" name="Isosceles Triangle 231">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19558,7 +22034,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="252" name="Group 251"/>
+        <xdr:cNvPr id="252" name="Group 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -19571,7 +22053,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="262" name="Rounded Rectangle 261"/>
+          <xdr:cNvPr id="262" name="Rounded Rectangle 261">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -19616,7 +22104,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="263" name="Rectangle 262"/>
+          <xdr:cNvPr id="263" name="Rectangle 262">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -19682,7 +22176,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="266" name="Group 265"/>
+        <xdr:cNvPr id="266" name="Group 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -19695,7 +22195,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="267" name="Rounded Rectangle 266"/>
+          <xdr:cNvPr id="267" name="Rounded Rectangle 266">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -19740,7 +22246,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="268" name="Rectangle 267"/>
+          <xdr:cNvPr id="268" name="Rectangle 267">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -19809,7 +22321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="Rectangle 271"/>
+        <xdr:cNvPr id="272" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19874,7 +22392,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -19912,7 +22436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="Rounded Rectangle 272"/>
+        <xdr:cNvPr id="273" name="Rounded Rectangle 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19981,7 +22511,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="274" name="Group 273"/>
+        <xdr:cNvPr id="274" name="Group 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -19994,7 +22530,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="275" name="Rounded Rectangle 274"/>
+          <xdr:cNvPr id="275" name="Rounded Rectangle 274">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20039,7 +22581,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="276" name="Rectangle 275"/>
+          <xdr:cNvPr id="276" name="Rectangle 275">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20105,7 +22653,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="277" name="Group 276"/>
+        <xdr:cNvPr id="277" name="Group 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -20118,7 +22672,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="278" name="Rounded Rectangle 277"/>
+          <xdr:cNvPr id="278" name="Rounded Rectangle 277">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20163,7 +22723,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="279" name="Rectangle 278"/>
+          <xdr:cNvPr id="279" name="Rectangle 278">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20231,7 +22797,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="280" name="Rounded Rectangle 279"/>
+          <xdr:cNvPr id="280" name="Rounded Rectangle 279">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20301,7 +22873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="Rounded Rectangle 280"/>
+        <xdr:cNvPr id="281" name="Rounded Rectangle 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20366,7 +22944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="Rounded Rectangle 292"/>
+        <xdr:cNvPr id="293" name="Rounded Rectangle 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20426,7 +23010,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvPr id="47" name="Group 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -20439,7 +23029,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="290" name="Flowchart: Terminator 289"/>
+          <xdr:cNvPr id="290" name="Flowchart: Terminator 289">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20491,7 +23087,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="291" name="Oval 290"/>
+          <xdr:cNvPr id="291" name="Oval 290">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -20538,7 +23140,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="Group 41"/>
+          <xdr:cNvPr id="42" name="Group 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -20554,7 +23162,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="292" name="Isosceles Triangle 291"/>
+            <xdr:cNvPr id="292" name="Isosceles Triangle 291">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20597,7 +23211,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="286" name="Isosceles Triangle 285"/>
+            <xdr:cNvPr id="286" name="Isosceles Triangle 285">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20640,7 +23260,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="287" name="Isosceles Triangle 286"/>
+            <xdr:cNvPr id="287" name="Isosceles Triangle 286">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20683,7 +23309,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="288" name="Isosceles Triangle 287"/>
+            <xdr:cNvPr id="288" name="Isosceles Triangle 287">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20726,7 +23358,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="289" name="Isosceles Triangle 288"/>
+            <xdr:cNvPr id="289" name="Isosceles Triangle 288">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20786,7 +23424,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="Rectangle 223"/>
+        <xdr:cNvPr id="224" name="Rectangle 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20858,7 +23502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="Rectangle 165"/>
+        <xdr:cNvPr id="166" name="Rectangle 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20932,7 +23582,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="Rectangle 188"/>
+        <xdr:cNvPr id="189" name="Rectangle 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21006,7 +23662,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="Rectangle 189"/>
+        <xdr:cNvPr id="190" name="Rectangle 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21094,7 +23756,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="Rectangle 192"/>
+        <xdr:cNvPr id="193" name="Rectangle 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21168,7 +23836,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="Rectangle 193"/>
+        <xdr:cNvPr id="194" name="Rectangle 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21242,7 +23916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="Rectangle 197"/>
+        <xdr:cNvPr id="198" name="Rectangle 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21316,7 +23996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="Rectangle 198"/>
+        <xdr:cNvPr id="199" name="Rectangle 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21383,7 +24069,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="Rectangle 200"/>
+        <xdr:cNvPr id="201" name="Rectangle 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21476,7 +24168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="Rectangle 203"/>
+        <xdr:cNvPr id="204" name="Rectangle 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21543,7 +24241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="Rectangle 204"/>
+        <xdr:cNvPr id="205" name="Rectangle 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21617,7 +24321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="Rectangle 205"/>
+        <xdr:cNvPr id="206" name="Rectangle 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21696,7 +24406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="Rectangle 207"/>
+        <xdr:cNvPr id="208" name="Rectangle 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21784,7 +24500,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="Rectangle 211"/>
+        <xdr:cNvPr id="212" name="Rectangle 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21933,7 +24655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="Rectangle 212"/>
+        <xdr:cNvPr id="213" name="Rectangle 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22012,7 +24740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22050,7 +24784,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22113,7 +24853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22177,7 +24923,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -22190,7 +24942,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+          <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -22235,7 +24993,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -22303,7 +25067,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+          <xdr:cNvPr id="11" name="Rounded Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -22373,7 +25143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22438,7 +25214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22500,7 +25282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22582,7 +25370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22649,7 +25443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22729,7 +25529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22810,7 +25616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22873,7 +25685,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22911,7 +25729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22974,7 +25798,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -23017,7 +25847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -23055,7 +25891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23117,7 +25959,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="Group 23"/>
+        <xdr:cNvPr id="24" name="Group 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23130,7 +25978,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+          <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23182,7 +26036,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Oval 19"/>
+          <xdr:cNvPr id="20" name="Oval 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23245,7 +26105,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23258,7 +26124,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+          <xdr:cNvPr id="31" name="Rounded Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23310,7 +26182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Oval 32"/>
+          <xdr:cNvPr id="33" name="Oval 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23373,7 +26251,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="Group 34"/>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23386,7 +26270,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+          <xdr:cNvPr id="36" name="Rounded Rectangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23438,7 +26328,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Oval 37"/>
+          <xdr:cNvPr id="38" name="Oval 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23501,7 +26397,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvPr id="45" name="Group 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23514,7 +26416,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+          <xdr:cNvPr id="46" name="Rounded Rectangle 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23566,7 +26474,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Oval 47"/>
+          <xdr:cNvPr id="48" name="Oval 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23629,7 +26543,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="50" name="Group 49"/>
+        <xdr:cNvPr id="50" name="Group 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23642,7 +26562,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="Rounded Rectangle 50"/>
+          <xdr:cNvPr id="51" name="Rounded Rectangle 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23694,7 +26620,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Oval 52"/>
+          <xdr:cNvPr id="53" name="Oval 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23757,7 +26689,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvPr id="55" name="Group 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23770,7 +26708,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+          <xdr:cNvPr id="56" name="Rounded Rectangle 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23822,7 +26766,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="Oval 57"/>
+          <xdr:cNvPr id="58" name="Oval 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23885,7 +26835,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="Group 59"/>
+        <xdr:cNvPr id="60" name="Group 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -23898,7 +26854,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+          <xdr:cNvPr id="61" name="Rounded Rectangle 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -23950,7 +26912,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="Oval 62"/>
+          <xdr:cNvPr id="63" name="Oval 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -24013,7 +26981,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="Group 69"/>
+        <xdr:cNvPr id="70" name="Group 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -24026,7 +27000,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
+          <xdr:cNvPr id="71" name="Rounded Rectangle 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -24078,7 +27058,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="72" name="Group 71"/>
+          <xdr:cNvPr id="72" name="Group 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -24091,7 +27077,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="73" name="Oval 72"/>
+            <xdr:cNvPr id="73" name="Oval 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24138,7 +27130,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="Oval 73"/>
+            <xdr:cNvPr id="74" name="Oval 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24202,7 +27200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Down Arrow 80"/>
+        <xdr:cNvPr id="81" name="Down Arrow 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24269,7 +27273,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24307,7 +27317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24375,7 +27391,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24413,7 +27435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24451,7 +27479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24489,7 +27523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24527,7 +27567,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24565,7 +27611,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -24603,7 +27655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24663,7 +27721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24718,7 +27782,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="52" name="Group 51"/>
+        <xdr:cNvPr id="52" name="Group 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -24731,7 +27801,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvPr id="45" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -24776,7 +27852,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -24833,7 +27915,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="Group 19"/>
+          <xdr:cNvPr id="20" name="Group 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -24846,7 +27934,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Oval 12"/>
+            <xdr:cNvPr id="13" name="Oval 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24893,7 +27987,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Oval 14"/>
+            <xdr:cNvPr id="15" name="Oval 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24938,7 +28038,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Oval 15"/>
+            <xdr:cNvPr id="16" name="Oval 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24985,7 +28091,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Oval 16"/>
+            <xdr:cNvPr id="17" name="Oval 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25030,7 +28142,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Oval 18"/>
+            <xdr:cNvPr id="19" name="Oval 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25076,7 +28194,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvPr id="22" name="Rectangle 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25124,7 +28248,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="Group 29"/>
+          <xdr:cNvPr id="30" name="Group 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -25137,7 +28267,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Block Arc 23"/>
+            <xdr:cNvPr id="24" name="Block Arc 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25186,7 +28322,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="Block Arc 27"/>
+            <xdr:cNvPr id="28" name="Block Arc 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25235,7 +28377,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Isosceles Triangle 28"/>
+            <xdr:cNvPr id="29" name="Isosceles Triangle 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25281,7 +28429,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Lightning Bolt 30"/>
+          <xdr:cNvPr id="31" name="Lightning Bolt 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25326,7 +28480,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Chevron 31"/>
+          <xdr:cNvPr id="32" name="Chevron 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25375,7 +28535,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Freeform 33"/>
+          <xdr:cNvPr id="34" name="Freeform 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25756,7 +28922,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+          <xdr:cNvPr id="35" name="Rounded Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25801,7 +28973,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Rectangle 35"/>
+          <xdr:cNvPr id="36" name="Rectangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25846,7 +29024,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+          <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -25907,7 +29091,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -25945,7 +29135,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -25983,7 +29179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26055,7 +29257,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rectangle 54"/>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26128,7 +29336,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -26166,7 +29380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26225,7 +29445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26291,7 +29517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26345,7 +29577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26399,7 +29637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26453,7 +29697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26507,7 +29757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -26550,7 +29806,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26588,7 +29850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26626,7 +29894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26664,7 +29938,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26702,7 +29982,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26740,7 +30026,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26778,7 +30070,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26816,7 +30114,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26854,7 +30158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26892,7 +30202,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26930,7 +30246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -26968,7 +30290,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -27006,7 +30334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -27044,7 +30378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -27082,7 +30422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -27120,7 +30466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -27158,7 +30510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -27196,7 +30554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -27234,7 +30598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -27272,7 +30642,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -27285,7 +30661,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -27308,7 +30690,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -27366,7 +30754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -27654,7 +31048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="Q1:AA35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27725,7 +31119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27752,7 +31146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="EW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27767,7 +31161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -27782,7 +31176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="Q1:AA36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -27853,7 +31247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27865,7 +31259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -27886,7 +31280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -27913,7 +31307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="I36:R110"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
@@ -28227,7 +31621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28262,7 +31656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
